--- a/Original/CN/Dialog/Drama/loytel.xlsx
+++ b/Original/CN/Dialog/Drama/loytel.xlsx
@@ -3614,7 +3614,7 @@
 …过来，给你制作出货箱的素材吧。用「制作台」制作「出货箱」安装在地面上。</t>
   </si>
   <si>
-    <t xml:space="preserve">…对了，一定要用我给你的帕露露树的木材来做。出货箱的颜色必须是时尚优雅的帕露露木色。我的审美不允许它是其他颜色，你可要记住了！
+    <t xml:space="preserve">…对了，一定要用我给你的帕露露树的木材来制造。出货箱的颜色必须是时尚优雅的帕露露木色。我的审美不允许它是其他颜色，你可要记住了！
 以防万一告诉你一下，在制造界面点击素材的图标，就可以更换制造用的素材了。</t>
   </si>
   <si>

--- a/Original/CN/Dialog/Drama/loytel.xlsx
+++ b/Original/CN/Dialog/Drama/loytel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1160">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -3501,6 +3501,286 @@
     <t xml:space="preserve">She ran away... </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">negotiation_darkness</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファリスさん、ケトルの姿を見なかったか？ コルゴンにボロボロにされたジョウロを直してもらおうと思ったんだが、どこにも見当たらなくてな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Farris, have you seen Kettle around? Corgon made a real mess of my watering can, and I was hoping Kettle could patch it up, but he's nowhere to be found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そういえば、しばらく姿を見かけませんね。私もひび割れた鍋の修理を頼みたいと思っていたところです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now that you mention it, I haven't seen him for quite a while. I was hoping he might mend my cracked pot, as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">困ったな。クルイツゥアにも聞いてみたが、なぜかケトルの名を出すだけで機嫌を悪くしてしまうんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is troubling. I asked Quruitzia too, but oddly, just mentioning Kettle's name sets her off in a foul mood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの子は悩みの多い年頃なのですよ。そうですね、デミタス先生にケトルさんを見かけたか聞いてみましょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, she is at a delicate age, burdened with many worries. Perhaps we should inquire with Master Demitas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デミタス先生…？　なんでまた、あんな亡霊を先生と？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Demitas...? Why would you call that ghost a master?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふふ、失礼ですよ、ロイテル様。あの方は、知れば知るほど謎めいていて…まるで古代の遺跡のように、その内に多くを秘めているのです。生前は魔法書の複製を手掛けるほどの賢者だったとか。
+だから、私は敬意を込めて先生とお呼びすることにしたのです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, now, that's hardly respectful, Lord Loytel. The more you learn about him, the more intriguing he becomes—like an ancient ruin filled with hidden secrets. They say that in life, he even dabbled in the replication of magical tomes—a true scholar.
+That’s why I’ve chosen to address him respectfully as 'Master.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファリスさん…いや、何もいわないでおこう。デミタスを見る時、あなたの目はいつも輝いていたからな。
+よし、早速その「先生」の所に行ってみよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Farris... No, I'll say nothing more. Your eyes always sparkle when you speak of him.
+Very well, let’s visit this 'Master' of yours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デミタス先生…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Demitas...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">去れ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でも先生、どうかお話を！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But Master, please grant us a moment!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我は弟子をとった覚えなどない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recall taking no disciples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まあまあ、二人とも穏便にしてくれ。実はケトルを探しているんだが、どこに行ったか知らないか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, now, let's all remain calm. We're looking for Kettle—do you know where he's gone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そんなことか…ククク…あの者は、汝らに何も告げず旅立ったのだな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is that all? Heh heh heh... So, the man has left without a word, has he?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旅立った？　いったいどこへ、何のために？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left? To where, and for what purpose?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの者の行先など一つしかない。かつての弟子、イスシズルを訪ねているのだろう。交渉でも持ちかけるつもりでな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His destination can only be one place—to seek out his former disciple, Issizzle. Perhaps to negotiate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そうか、きっとコルゴンとクルイツゥアを守るために…だが、交渉の材料など、我々にあるだろうか。ケトルの身も心配だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation? Surely, it's to protect Quruitzia and Corgon... but do we have anything of value to offer? I worry greatly for Kettle’s safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…竜の子と災いの魔女を守るためと？
+ククク…めでたいものだ。あるいは、その二人こそが交渉の駒になるかもしれぬとは、心によぎりもしないのだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...To protect the dragon child and the ill-eyed witch? 
+Heh heh heh... How charmingly naive. Hast thou never considered that those two might themselves be bargaining chips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お前さん…まさか、ケトルが我々を売るつもりだとでもいいたいのか？　そんなことあるはずがない！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you suggesting... Kettle would betray us? That’s absurd!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ククク…汝はケトルの何を知っている？　ザシム王の時代…この身がまだ人間だった頃、我はあの者を知っていた。弟子のイスシズルもな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... What dost thou truly know of Kettle? Back in the reign of King Zashim, when I yet walked as a man, I knew him well—him and his disciple Issizzle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔石に取り憑かれたイスシズルを討つため、ケトルが弟子の居城におもむいた時、我はそこにいたのだ。
+…あの日、二人が密室で何を語り合ったかは知らぬ。だが、ケトルはその手を血に染めることなく、イスシズルの部屋を後にした。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Kettle went to confront Issizzle, who was already ensnared by the Magic Stone, I was there. 
+...What the two whispered of within those walls, I know not. Yet when Kettle emerged, his hands were free of blood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やがて、かつてのよりを戻したかのように、黒いマントの男がたびたびケトルの元を訪れるようになった。
+黒いマントの男…ククク…そう、その時はイスシズルもまだ人の心を持った人間だったのだ。その時はな。
+魔石があの男をどのような恐ろしい化け物に変えたかは、汝らも耳にしているだろう。不浄なる闇、亡者を操る呪われた死霊使い…ひとたびその名が囁かれれば、子どもは泣き、大人ですら震え上がる穢れた存在だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soon after, a figure cloaked in black bagan to visit Kettle, time and again, as though the bond between master and student had never been severed.
+A man in black... heh heh heh... indeed, Issizzle still remained human then.
+But thou knowest well what dread monster the Magic Stone eventually made of him. An unholy darkness, a necromancer who commands the dead... whose whispered name strikes terror into children and adults alike.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…あの日、ケトルがイスシズルを殺さなかったのは、憐れみからか？　それとも、彼自身の秘めた目的のためか？
+我は覚えているぞ。魔石について語るケトルの瞳にはいつも、狂熱の炎が微かに揺らめいていたことを。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me, was it pity that stayed Kettle’s hand that day, or was it a hidden purpose of his own?
+I remember clearly how Kettle’s eyes flickered with quiet fanaticism when speaking of the Magic Stone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あの者は、イスシズルが魔石に魅せられているといった。だが…ククク…おそらくあの者もまた、魔石に囚われた人間の一人なのだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He said Issizzle was captivated by the Stone. Heh heh heh... Perhaps he, too, is but another soul bound by its wicked allure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そんな、信じられません。あのケトルさんが…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No... I can’t believe it. Not Kettle...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私もだ。ケトルは確かに謎だらけだし、話を聞いていると、彼が「人間」かどうかもわからなくなる。
+だが、竜の子に魔女の子、おまけに宙に浮かぶボロ布の亡霊とこうやって話している今、そんなことはどうでもよく思えてくるよ…おっと、ボロ布とは流石に失礼だったな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nor can I. 
+Kettle is a riddle, to be sure, I cannot even say for certain if he is human. But considering I’m living with a floating ragged ghost nowadays, on top of a dragon hatchling, and the descendant of an ancient witch, I suppose such questions hardly matter anymore... Oh, no offense meant by 'ragged ghost.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…なんとでも呼ぶがいい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Call me as thou wilt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ともかく、ケトルが何を考えているにせよ、我々は彼を信じて帰りを待つだけだ。残念だが、壊れた鍋の修理はまだ先になりそうだな、ファリスさん。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regardless, whatever Kettle’s intentions may be, we have no choice but to trust him and await his return. I'm afraid your cracked pot must wait, Lady Farris.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ええ、かまいません。でも、コルゴンがフライパンもボロボロにかじっていて…ふふ、ケトルさんは、帰ってきたらきっと大忙しですね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That’s quite all right. Though, Corgon has taken quite a liking to chewing through my frying pan as well. Heh, I imagine Kettle will be quite busy when he returns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ククク…汝らと話していると調子が狂う。…待て、汝にこの腕輪をやろう。我にはもう必要のないものだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... Speaking with thee muddles my wits. Here, take this bracelet—I no longer have need of it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なんだこれは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミシリアの東の山脈のふもと、暗く古い森の中に、我々「追放者」の暮らす村がある。結界に守られているが、この腕輪があれば拒まれることはない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the shadow of the eastern mountains of Mysiria lies a dark, ancient forest. There, thou wilt find the village of the Exiles—my kin, my kindred. It is shielded by a barrier, yet this bracelet shall grant thee passage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追放者の長のビチェリンは食えぬ老いぼれだが、今は失われし貴重な知識を持っている。もしイスシズルと、そしてケトルと相対することになるなら、あの老いぼれの授ける力は役に立つだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seek out their elder, Bicerin. A cunning old wretch, yet one who holds knowledge long lost to the world. Should thou find thyself facing Issizzle or even Kettle, the elder’s wisdom may yet prove of use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追放者の村…その響きだけで、不思議と胸が高鳴ります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Exile’s village... The name alone sets my heart racing with curiosity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふむ、確かに興味深いが…なぜ我々の手助けをする？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hm... Intriguing, but why offer us such aid?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ククク…暇つぶしだ。それに、このままではあまりに不公平ではないか？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">汝らが対するは、この世界において最も神に近い存在なのだからな</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... For idle amusement, perhaps. And, in truth, would it not be too unfair otherwise?
+Verily, thou art about to stand against the one closest to the gods in this realm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key_exile</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -3575,7 +3855,7 @@
   </si>
   <si>
     <t xml:space="preserve">在你拥有的土地上，安装了被称为「盟约之石」的精灵石。根据古老的契约，这块石头就是为土地带来繁荣的承诺，伴随着石头的成长，据点也能得到各种各样的好处。
-具体有增加实施政策所需的运营力、开放建造模式、阻止敌人破坏据点的物品等好处，盟约之石的成长，对据点的发展十分重要。</t>
+具体有增加实施政策所需的运营能力、开放建造模式、阻止敌人破坏据点的物品等好处，盟约之石的成长，对据点的发展十分重要。</t>
   </si>
   <si>
     <t xml:space="preserve">为了使盟约之石成长，需要将盟约之石的经验值积累到最大。经验值即使什么都不做也会随着时间的流逝而增加，但出售道具或特定居民的行动也可以增加经验值。
@@ -4572,6 +4852,121 @@
   </si>
   <si>
     <t xml:space="preserve">她跑了…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">法莉斯小姐，你见到凯特尔了吗？我想让他帮我修好被歌罗贡弄坏的浇水壶，但是哪里都找不到他。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这么说来，确实有阵子没见到他了。我也正想请他帮忙把坏掉的锅修一修。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这下头疼了。我也去问过库罗茨亚，但不知道为什么刚提起凯特尔的名字她就一脸的不高兴。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">那孩子毕竟还处于烦恼很多的年纪呢。对了，我们去问问迪米塔斯老师有没有见到凯特尔吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迪米塔斯老师…？你管那幽灵叫做老师？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呵呵，你这么说可就不礼貌了，罗伊特尔大人。我越是了解那位大人就越觉得他神秘…就像古代遗迹一样深藏不露。他生前还曾是位厉害到能够复制魔法书的贤者呢。
+所以，我才会怀着敬意称他为老师。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">法莉斯小姐…算了，什么都不用说了。我知道你看着迪米塔斯的时候，两眼都直冒光。
+好吧，赶快去 「老师」那里看看吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迪米塔斯老师…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请回吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">但是老师，请听我说！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吾不记得有收过徒弟。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好了好了，两位先不要争这个。其实我们是在找凯特尔，你知道他去哪里了么？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原来如此…呵呵呵…那人什么都没有告诉汝等，便启程了啊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">启程？他去哪了，又为什么要走？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">他只会有一个去处，即去见他过去的徒弟，伊斯西泽尔。或许是打算去交涉吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这样吗。那肯定是为了保护歌罗贡和库罗茨亚…但我们真的有交涉的筹码吗。凯特尔的安危也让人担忧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……为了保护龙之子和灾厄的魔女？
+呵呵…真是天真，汝等甚至从未想过那两人便可作为筹码使用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你这个人…难道说，你认为凯特尔会出卖我们？　那种事情根本不可能！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呵呵…汝等又怎会了解凯特尔？在扎西姆王的时代…当吾的身躯尚为凡胎之时，吾就已经认识他，还有他的徒弟伊斯西泽尔了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">凯特尔为了讨伐他那被魔石附身的徒弟，前往其所在之处时，吾也在那里。
+…吾不知他们在密室中聊了什么。只知道凯特尔的双手并未沾染鲜血便离开了伊斯西泽尔的房间。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+后来，那黑袍男子便频频造访凯特尔，就好像都还与过去一样。
+黑袍男子…呵呵…对了，那时的伊斯西泽尔，还是人性尚存的人类呢。
+魔石把那个男人变成了何等可怕的怪物，汝等也应该有所耳闻吧。不净的暗影，操弄亡者的死灵术士…只要低声提起那污秽的名号，就能吓哭孩童，让成人颤栗。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…那天凯特尔没有杀伊斯西泽尔是出于怜悯？还是为了他自己不可告人的目的呢？
+吾可记得。每当提起魔石，凯特尔的眼中都会有微微摇曳的狂热火焰。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">他说伊斯西泽尔是被魔石迷住了。但是…呵呵…我看他恐怕也是被魔石所困的人类之一吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怎么可能，我不信，那位凯特尔先生怎么会…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我也不信。虽然凯特尔身上确实是有许多谜团，听了你的话后，我也会有些怀疑他是不是真的「人类」。
+不过我都实际见过了龙之子、魔女之子，还和一块飘在半空的破布似的幽灵聊过天，也算是什么事都见怪不怪了…诶呀，用破布来称呼你实在有点失礼了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…想怎么称呼都随你。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总之，不管凯特尔是怎么想的，我们都会选择相信他，等他回来。只是他这么一走，修理坏锅的事情就要等上一阵了，法莉斯小姐。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嗯，没关系。这次平底锅也被歌罗贡给咬坏了…嘿嘿，凯特尔先生回来之后一定会很忙的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呵呵呵…和汝等讲话总会跑题。…稍等，这手环就给予汝吧。对吾已是无用之物。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这是什么东西？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">米西利亚东边山脉的山脚下，阴暗的古老森林中，有吾等「流放者」生活的村落。它被结界守护，但是有了这手环汝等就不会再被阻挡在外。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">流放者的长老比切林是个很难打交道的老东西，但他拥有已经失传的珍贵学识。倘若要与伊斯西兹尔，甚至凯特尔为敌，那老头的力量还是有用的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">流放者之村…光是听到这个名字，就让人很激动呢。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唔，确实让人感兴趣…但你为什么要帮助我们呢？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呵呵呵..…只是消磨时间罢了。而且以现在的情况，对汝等岂不是不公平？
+毕竟汝等要面对的对手，可是这世界上最接近「神」的存在啊。</t>
   </si>
 </sst>
 </file>
@@ -5065,12 +5460,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N657"/>
+  <dimension ref="A1:N709"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L649" sqref="L649"/>
-      <selection pane="bottomLeft" activeCell="K567" sqref="K567"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L702" sqref="L702"/>
+      <selection pane="bottomLeft" activeCell="J702" sqref="J702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -5128,7 +5523,7 @@
     <row r="2" ht="12.8">
       <c r="I2" s="1">
         <f>MAX(I4:I1048576)</f>
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" ht="12.8">
@@ -5152,7 +5547,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>739</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -5176,7 +5571,7 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>740</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -5196,7 +5591,7 @@
         <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>741</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" ht="12.8">
@@ -5231,7 +5626,7 @@
         <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>742</v>
+        <v>817</v>
       </c>
     </row>
     <row r="17" ht="12.8">
@@ -5251,7 +5646,7 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>743</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -5271,7 +5666,7 @@
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>744</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -5298,7 +5693,7 @@
         <v>35</v>
       </c>
       <c r="L22" t="s">
-        <v>745</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" ht="12.8">
@@ -5320,7 +5715,7 @@
         <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>746</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -5340,7 +5735,7 @@
         <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>747</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" ht="13.8">
@@ -5360,7 +5755,7 @@
         <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>748</v>
+        <v>823</v>
       </c>
     </row>
     <row r="28" ht="13.8">
@@ -5380,7 +5775,7 @@
         <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>749</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" ht="13.8">
@@ -5400,7 +5795,7 @@
         <v>49</v>
       </c>
       <c r="L29" t="s">
-        <v>750</v>
+        <v>825</v>
       </c>
     </row>
     <row r="30" ht="13.8">
@@ -5420,7 +5815,7 @@
         <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>751</v>
+        <v>826</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -5443,7 +5838,7 @@
         <v>56</v>
       </c>
       <c r="L31" t="s">
-        <v>752</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32" ht="12.8">
@@ -5463,7 +5858,7 @@
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>744</v>
+        <v>819</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -5495,7 +5890,7 @@
         <v>58</v>
       </c>
       <c r="L36" t="s">
-        <v>753</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -5523,7 +5918,7 @@
         <v>60</v>
       </c>
       <c r="L40" t="s">
-        <v>754</v>
+        <v>829</v>
       </c>
     </row>
     <row r="41" ht="12.8">
@@ -5551,7 +5946,7 @@
         <v>62</v>
       </c>
       <c r="L44" t="s">
-        <v>755</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45" ht="12.8">
@@ -5579,7 +5974,7 @@
         <v>64</v>
       </c>
       <c r="L48" t="s">
-        <v>756</v>
+        <v>831</v>
       </c>
     </row>
     <row r="49" ht="75.35">
@@ -5593,7 +5988,7 @@
         <v>66</v>
       </c>
       <c r="L49" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" ht="85.05">
@@ -5607,7 +6002,7 @@
         <v>68</v>
       </c>
       <c r="L50" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
     </row>
     <row r="51" ht="12.8">
@@ -5635,7 +6030,7 @@
         <v>70</v>
       </c>
       <c r="L54" t="s">
-        <v>759</v>
+        <v>834</v>
       </c>
     </row>
     <row r="55" ht="105.95">
@@ -5649,7 +6044,7 @@
         <v>72</v>
       </c>
       <c r="L55" t="s">
-        <v>760</v>
+        <v>835</v>
       </c>
     </row>
     <row r="56" ht="46.25">
@@ -5663,7 +6058,7 @@
         <v>74</v>
       </c>
       <c r="L56" t="s">
-        <v>761</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" ht="12.8">
@@ -5687,7 +6082,7 @@
         <v>76</v>
       </c>
       <c r="L60" t="s">
-        <v>762</v>
+        <v>837</v>
       </c>
     </row>
     <row r="61" ht="74.6">
@@ -5701,7 +6096,7 @@
         <v>78</v>
       </c>
       <c r="L61" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" ht="12.8">
@@ -5725,7 +6120,7 @@
         <v>81</v>
       </c>
       <c r="L65" t="s">
-        <v>764</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66" ht="35.05">
@@ -5739,7 +6134,7 @@
         <v>83</v>
       </c>
       <c r="L66" t="s">
-        <v>765</v>
+        <v>840</v>
       </c>
     </row>
     <row r="67" ht="124.6">
@@ -5753,7 +6148,7 @@
         <v>85</v>
       </c>
       <c r="L67" t="s">
-        <v>766</v>
+        <v>841</v>
       </c>
     </row>
     <row r="68" ht="13.8">
@@ -5767,7 +6162,7 @@
         <v>87</v>
       </c>
       <c r="L68" t="s">
-        <v>767</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" ht="13.8">
@@ -5795,7 +6190,7 @@
         <v>91</v>
       </c>
       <c r="L70" t="s">
-        <v>768</v>
+        <v>843</v>
       </c>
     </row>
     <row r="71" ht="13.8">
@@ -5828,7 +6223,7 @@
         <v>97</v>
       </c>
       <c r="L74" t="s">
-        <v>769</v>
+        <v>844</v>
       </c>
     </row>
     <row r="75" ht="12.8">
@@ -5857,7 +6252,7 @@
         <v>102</v>
       </c>
       <c r="L80" t="s">
-        <v>770</v>
+        <v>845</v>
       </c>
     </row>
     <row r="84" ht="12.8">
@@ -5881,7 +6276,7 @@
         <v>105</v>
       </c>
       <c r="L89" t="s">
-        <v>771</v>
+        <v>846</v>
       </c>
     </row>
     <row r="90" ht="13.8">
@@ -5895,7 +6290,7 @@
         <v>107</v>
       </c>
       <c r="L90" t="s">
-        <v>772</v>
+        <v>847</v>
       </c>
     </row>
     <row r="91" ht="85.05">
@@ -5909,7 +6304,7 @@
         <v>109</v>
       </c>
       <c r="L91" t="s">
-        <v>773</v>
+        <v>848</v>
       </c>
     </row>
     <row r="92" ht="12.8">
@@ -5946,7 +6341,7 @@
         <v>113</v>
       </c>
       <c r="L97" t="s">
-        <v>774</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98" ht="95.5">
@@ -5960,7 +6355,7 @@
         <v>115</v>
       </c>
       <c r="L98" t="s">
-        <v>775</v>
+        <v>850</v>
       </c>
     </row>
     <row r="99" ht="12.8">
@@ -6042,7 +6437,7 @@
         <v>122</v>
       </c>
       <c r="L108" t="s">
-        <v>776</v>
+        <v>851</v>
       </c>
     </row>
     <row r="109" ht="23.85">
@@ -6059,7 +6454,7 @@
         <v>124</v>
       </c>
       <c r="L109" t="s">
-        <v>777</v>
+        <v>852</v>
       </c>
     </row>
     <row r="110" ht="13.8">
@@ -6073,7 +6468,7 @@
         <v>126</v>
       </c>
       <c r="L110" t="s">
-        <v>778</v>
+        <v>853</v>
       </c>
     </row>
     <row r="111" ht="12.8">
@@ -6095,7 +6490,7 @@
         <v>129</v>
       </c>
       <c r="L112" t="s">
-        <v>779</v>
+        <v>854</v>
       </c>
     </row>
     <row r="113" ht="13.8">
@@ -6123,7 +6518,7 @@
         <v>131</v>
       </c>
       <c r="L114" t="s">
-        <v>780</v>
+        <v>855</v>
       </c>
     </row>
     <row r="115" ht="13.8">
@@ -6140,7 +6535,7 @@
         <v>133</v>
       </c>
       <c r="L115" t="s">
-        <v>781</v>
+        <v>856</v>
       </c>
     </row>
     <row r="116" ht="13.8">
@@ -6157,7 +6552,7 @@
         <v>135</v>
       </c>
       <c r="L116" t="s">
-        <v>782</v>
+        <v>857</v>
       </c>
     </row>
     <row r="117" ht="13.8">
@@ -6171,7 +6566,7 @@
         <v>137</v>
       </c>
       <c r="L117" t="s">
-        <v>783</v>
+        <v>858</v>
       </c>
     </row>
     <row r="118" ht="57.45">
@@ -6185,7 +6580,7 @@
         <v>139</v>
       </c>
       <c r="L118" t="s">
-        <v>784</v>
+        <v>859</v>
       </c>
     </row>
     <row r="119" ht="35.05">
@@ -6199,7 +6594,7 @@
         <v>141</v>
       </c>
       <c r="L119" t="s">
-        <v>785</v>
+        <v>860</v>
       </c>
     </row>
     <row r="120" ht="23.85">
@@ -6216,7 +6611,7 @@
         <v>143</v>
       </c>
       <c r="L120" t="s">
-        <v>786</v>
+        <v>861</v>
       </c>
     </row>
     <row r="121" ht="13.8">
@@ -6230,7 +6625,7 @@
         <v>145</v>
       </c>
       <c r="L121" t="s">
-        <v>787</v>
+        <v>862</v>
       </c>
     </row>
     <row r="122" ht="13.8">
@@ -6264,7 +6659,7 @@
         <v>147</v>
       </c>
       <c r="L123" t="s">
-        <v>788</v>
+        <v>863</v>
       </c>
     </row>
     <row r="124" ht="13.8">
@@ -6281,7 +6676,7 @@
         <v>149</v>
       </c>
       <c r="L124" t="s">
-        <v>789</v>
+        <v>864</v>
       </c>
     </row>
     <row r="125" ht="13.8">
@@ -6338,7 +6733,7 @@
         <v>156</v>
       </c>
       <c r="L134" t="s">
-        <v>790</v>
+        <v>865</v>
       </c>
     </row>
     <row r="135" ht="57.45">
@@ -6352,7 +6747,7 @@
         <v>158</v>
       </c>
       <c r="L135" t="s">
-        <v>791</v>
+        <v>866</v>
       </c>
     </row>
     <row r="136" ht="13.8">
@@ -6369,7 +6764,7 @@
         <v>160</v>
       </c>
       <c r="L136" t="s">
-        <v>792</v>
+        <v>867</v>
       </c>
     </row>
     <row r="137" ht="35.05">
@@ -6383,7 +6778,7 @@
         <v>162</v>
       </c>
       <c r="L137" t="s">
-        <v>793</v>
+        <v>868</v>
       </c>
     </row>
     <row r="138" ht="35.05">
@@ -6400,7 +6795,7 @@
         <v>164</v>
       </c>
       <c r="L138" t="s">
-        <v>794</v>
+        <v>869</v>
       </c>
     </row>
     <row r="139" ht="13.8">
@@ -6431,7 +6826,7 @@
         <v>166</v>
       </c>
       <c r="L140" t="s">
-        <v>795</v>
+        <v>870</v>
       </c>
     </row>
     <row r="141" ht="13.8">
@@ -6445,7 +6840,7 @@
         <v>168</v>
       </c>
       <c r="L141" t="s">
-        <v>796</v>
+        <v>871</v>
       </c>
     </row>
     <row r="142" ht="68.65">
@@ -6459,7 +6854,7 @@
         <v>170</v>
       </c>
       <c r="L142" t="s">
-        <v>797</v>
+        <v>872</v>
       </c>
     </row>
     <row r="143" ht="23.85">
@@ -6476,7 +6871,7 @@
         <v>172</v>
       </c>
       <c r="L143" t="s">
-        <v>798</v>
+        <v>873</v>
       </c>
     </row>
     <row r="144" ht="13.8">
@@ -6490,7 +6885,7 @@
         <v>137</v>
       </c>
       <c r="L144" t="s">
-        <v>783</v>
+        <v>858</v>
       </c>
     </row>
     <row r="145" ht="68.65">
@@ -6507,7 +6902,7 @@
         <v>174</v>
       </c>
       <c r="L145" t="s">
-        <v>799</v>
+        <v>874</v>
       </c>
     </row>
     <row r="146" ht="13.8">
@@ -6521,7 +6916,7 @@
         <v>176</v>
       </c>
       <c r="L146" t="s">
-        <v>800</v>
+        <v>875</v>
       </c>
     </row>
     <row r="147" ht="13.8">
@@ -6538,7 +6933,7 @@
         <v>178</v>
       </c>
       <c r="L147" t="s">
-        <v>801</v>
+        <v>876</v>
       </c>
     </row>
     <row r="148" ht="23.85">
@@ -6552,7 +6947,7 @@
         <v>180</v>
       </c>
       <c r="L148" t="s">
-        <v>802</v>
+        <v>877</v>
       </c>
     </row>
     <row r="149" ht="12.8">
@@ -6616,7 +7011,7 @@
         <v>186</v>
       </c>
       <c r="L158" t="s">
-        <v>803</v>
+        <v>878</v>
       </c>
     </row>
     <row r="159" ht="23.85">
@@ -6630,7 +7025,7 @@
         <v>188</v>
       </c>
       <c r="L159" t="s">
-        <v>804</v>
+        <v>879</v>
       </c>
     </row>
     <row r="160" ht="23.85">
@@ -6647,7 +7042,7 @@
         <v>190</v>
       </c>
       <c r="L160" t="s">
-        <v>805</v>
+        <v>880</v>
       </c>
     </row>
     <row r="161" ht="68.65">
@@ -6661,7 +7056,7 @@
         <v>192</v>
       </c>
       <c r="L161" t="s">
-        <v>806</v>
+        <v>881</v>
       </c>
     </row>
     <row r="162" ht="91">
@@ -6675,7 +7070,7 @@
         <v>194</v>
       </c>
       <c r="L162" t="s">
-        <v>807</v>
+        <v>882</v>
       </c>
     </row>
     <row r="163" ht="46.25">
@@ -6689,7 +7084,7 @@
         <v>196</v>
       </c>
       <c r="L163" t="s">
-        <v>808</v>
+        <v>883</v>
       </c>
     </row>
     <row r="164" ht="13.8">
@@ -6720,7 +7115,7 @@
         <v>199</v>
       </c>
       <c r="L165" t="s">
-        <v>809</v>
+        <v>884</v>
       </c>
     </row>
     <row r="166" ht="57.45">
@@ -6737,7 +7132,7 @@
         <v>201</v>
       </c>
       <c r="L166" t="s">
-        <v>810</v>
+        <v>885</v>
       </c>
     </row>
     <row r="167" ht="13.8">
@@ -6771,7 +7166,7 @@
         <v>203</v>
       </c>
       <c r="L168" t="s">
-        <v>811</v>
+        <v>886</v>
       </c>
     </row>
     <row r="169" ht="23.85">
@@ -6785,7 +7180,7 @@
         <v>205</v>
       </c>
       <c r="L169" t="s">
-        <v>812</v>
+        <v>887</v>
       </c>
     </row>
     <row r="170" ht="35.05">
@@ -6802,7 +7197,7 @@
         <v>207</v>
       </c>
       <c r="L170" t="s">
-        <v>813</v>
+        <v>888</v>
       </c>
     </row>
     <row r="171" ht="35.05">
@@ -6816,7 +7211,7 @@
         <v>209</v>
       </c>
       <c r="L171" t="s">
-        <v>814</v>
+        <v>889</v>
       </c>
     </row>
     <row r="172" ht="56.7">
@@ -6830,7 +7225,7 @@
         <v>211</v>
       </c>
       <c r="L172" t="s">
-        <v>815</v>
+        <v>890</v>
       </c>
     </row>
     <row r="173" ht="13.8">
@@ -6891,7 +7286,7 @@
         <v>215</v>
       </c>
       <c r="L182" t="s">
-        <v>816</v>
+        <v>891</v>
       </c>
     </row>
     <row r="183" ht="13.8">
@@ -6908,7 +7303,7 @@
         <v>217</v>
       </c>
       <c r="L183" t="s">
-        <v>817</v>
+        <v>892</v>
       </c>
     </row>
     <row r="184" ht="24.6">
@@ -6922,7 +7317,7 @@
         <v>219</v>
       </c>
       <c r="L184" t="s">
-        <v>818</v>
+        <v>893</v>
       </c>
     </row>
     <row r="185" ht="13.8">
@@ -6970,7 +7365,7 @@
         <v>221</v>
       </c>
       <c r="L187" t="s">
-        <v>819</v>
+        <v>894</v>
       </c>
     </row>
     <row r="188" ht="35.05">
@@ -6984,7 +7379,7 @@
         <v>223</v>
       </c>
       <c r="L188" t="s">
-        <v>820</v>
+        <v>895</v>
       </c>
     </row>
     <row r="189" ht="13.8">
@@ -7032,7 +7427,7 @@
         <v>225</v>
       </c>
       <c r="L191" t="s">
-        <v>821</v>
+        <v>896</v>
       </c>
     </row>
     <row r="192" ht="35.05">
@@ -7046,7 +7441,7 @@
         <v>227</v>
       </c>
       <c r="L192" t="s">
-        <v>822</v>
+        <v>897</v>
       </c>
     </row>
     <row r="193" ht="13.8">
@@ -7091,7 +7486,7 @@
         <v>229</v>
       </c>
       <c r="L195" t="s">
-        <v>823</v>
+        <v>898</v>
       </c>
     </row>
     <row r="196" ht="13.8">
@@ -7108,7 +7503,7 @@
         <v>231</v>
       </c>
       <c r="L196" t="s">
-        <v>824</v>
+        <v>899</v>
       </c>
     </row>
     <row r="197" ht="23.85">
@@ -7122,7 +7517,7 @@
         <v>233</v>
       </c>
       <c r="L197" t="s">
-        <v>825</v>
+        <v>900</v>
       </c>
     </row>
     <row r="198" ht="13.8">
@@ -7150,7 +7545,7 @@
         <v>235</v>
       </c>
       <c r="L199" t="s">
-        <v>826</v>
+        <v>901</v>
       </c>
     </row>
     <row r="200" ht="13.8">
@@ -7181,7 +7576,7 @@
         <v>237</v>
       </c>
       <c r="L201" t="s">
-        <v>827</v>
+        <v>902</v>
       </c>
     </row>
     <row r="202" ht="13.8">
@@ -7198,7 +7593,7 @@
         <v>239</v>
       </c>
       <c r="L202" t="s">
-        <v>828</v>
+        <v>903</v>
       </c>
     </row>
     <row r="203" ht="13.8">
@@ -7212,7 +7607,7 @@
         <v>241</v>
       </c>
       <c r="L203" t="s">
-        <v>829</v>
+        <v>904</v>
       </c>
     </row>
     <row r="204" ht="13.8">
@@ -7240,7 +7635,7 @@
         <v>243</v>
       </c>
       <c r="L205" t="s">
-        <v>830</v>
+        <v>905</v>
       </c>
     </row>
     <row r="206" ht="13.8">
@@ -7302,7 +7697,7 @@
         <v>246</v>
       </c>
       <c r="L216" t="s">
-        <v>831</v>
+        <v>906</v>
       </c>
     </row>
     <row r="217" ht="13.8">
@@ -7319,7 +7714,7 @@
         <v>248</v>
       </c>
       <c r="L217" t="s">
-        <v>832</v>
+        <v>907</v>
       </c>
     </row>
     <row r="218" ht="68.65">
@@ -7333,7 +7728,7 @@
         <v>250</v>
       </c>
       <c r="L218" t="s">
-        <v>833</v>
+        <v>908</v>
       </c>
     </row>
     <row r="219" ht="64.15">
@@ -7350,7 +7745,7 @@
         <v>252</v>
       </c>
       <c r="L219" t="s">
-        <v>834</v>
+        <v>909</v>
       </c>
     </row>
     <row r="220" ht="13.8">
@@ -7364,7 +7759,7 @@
         <v>254</v>
       </c>
       <c r="L220" t="s">
-        <v>835</v>
+        <v>910</v>
       </c>
     </row>
     <row r="221" ht="13.8">
@@ -7398,7 +7793,7 @@
         <v>256</v>
       </c>
       <c r="L222" t="s">
-        <v>836</v>
+        <v>911</v>
       </c>
     </row>
     <row r="223" ht="13.8">
@@ -7426,7 +7821,7 @@
         <v>258</v>
       </c>
       <c r="L224" t="s">
-        <v>837</v>
+        <v>912</v>
       </c>
     </row>
     <row r="225" ht="46.25">
@@ -7443,7 +7838,7 @@
         <v>260</v>
       </c>
       <c r="L225" t="s">
-        <v>838</v>
+        <v>913</v>
       </c>
     </row>
     <row r="226" ht="13.8">
@@ -7460,7 +7855,7 @@
         <v>262</v>
       </c>
       <c r="L226" t="s">
-        <v>839</v>
+        <v>914</v>
       </c>
     </row>
     <row r="227" ht="13.8">
@@ -7474,7 +7869,7 @@
         <v>264</v>
       </c>
       <c r="L227" t="s">
-        <v>840</v>
+        <v>915</v>
       </c>
     </row>
     <row r="228" ht="13.4">
@@ -7488,7 +7883,7 @@
         <v>266</v>
       </c>
       <c r="L228" t="s">
-        <v>841</v>
+        <v>916</v>
       </c>
     </row>
     <row r="229" ht="35.05">
@@ -7502,7 +7897,7 @@
         <v>268</v>
       </c>
       <c r="L229" t="s">
-        <v>842</v>
+        <v>917</v>
       </c>
     </row>
     <row r="230" ht="13.8">
@@ -7540,7 +7935,7 @@
         <v>272</v>
       </c>
       <c r="L239" t="s">
-        <v>843</v>
+        <v>918</v>
       </c>
     </row>
     <row r="240" ht="57.45">
@@ -7554,7 +7949,7 @@
         <v>274</v>
       </c>
       <c r="L240" t="s">
-        <v>844</v>
+        <v>919</v>
       </c>
     </row>
     <row r="241" ht="12.8">
@@ -7584,7 +7979,7 @@
         <v>277</v>
       </c>
       <c r="L244" t="s">
-        <v>845</v>
+        <v>920</v>
       </c>
     </row>
     <row r="245" ht="64.15">
@@ -7598,7 +7993,7 @@
         <v>279</v>
       </c>
       <c r="L245" t="s">
-        <v>846</v>
+        <v>921</v>
       </c>
     </row>
     <row r="246" ht="13.8">
@@ -7627,7 +8022,7 @@
         <v>281</v>
       </c>
       <c r="L247" t="s">
-        <v>847</v>
+        <v>922</v>
       </c>
     </row>
     <row r="248" ht="13.8">
@@ -7658,7 +8053,7 @@
         <v>283</v>
       </c>
       <c r="L249" t="s">
-        <v>848</v>
+        <v>923</v>
       </c>
     </row>
     <row r="250" ht="35.05">
@@ -7672,7 +8067,7 @@
         <v>285</v>
       </c>
       <c r="L250" t="s">
-        <v>849</v>
+        <v>924</v>
       </c>
     </row>
     <row r="251" ht="91">
@@ -7686,7 +8081,7 @@
         <v>287</v>
       </c>
       <c r="L251" t="s">
-        <v>850</v>
+        <v>925</v>
       </c>
     </row>
     <row r="252" ht="64.15">
@@ -7700,7 +8095,7 @@
         <v>289</v>
       </c>
       <c r="L252" t="s">
-        <v>851</v>
+        <v>926</v>
       </c>
     </row>
     <row r="253" ht="13.8">
@@ -7734,7 +8129,7 @@
         <v>292</v>
       </c>
       <c r="L257" t="s">
-        <v>852</v>
+        <v>927</v>
       </c>
     </row>
     <row r="258" ht="64.15">
@@ -7748,7 +8143,7 @@
         <v>294</v>
       </c>
       <c r="L258" t="s">
-        <v>853</v>
+        <v>928</v>
       </c>
     </row>
     <row r="259" ht="13.8">
@@ -7771,7 +8166,7 @@
         <v>297</v>
       </c>
       <c r="L260" t="s">
-        <v>854</v>
+        <v>929</v>
       </c>
     </row>
     <row r="261" ht="12.8">
@@ -7806,7 +8201,7 @@
         <v>300</v>
       </c>
       <c r="L266" t="s">
-        <v>855</v>
+        <v>930</v>
       </c>
     </row>
     <row r="267" ht="23.85">
@@ -7820,7 +8215,7 @@
         <v>302</v>
       </c>
       <c r="L267" t="s">
-        <v>856</v>
+        <v>931</v>
       </c>
     </row>
     <row r="268" ht="35.05">
@@ -7834,7 +8229,7 @@
         <v>304</v>
       </c>
       <c r="L268" t="s">
-        <v>857</v>
+        <v>932</v>
       </c>
     </row>
     <row r="269" ht="35.05">
@@ -7848,7 +8243,7 @@
         <v>306</v>
       </c>
       <c r="L269" t="s">
-        <v>858</v>
+        <v>933</v>
       </c>
     </row>
     <row r="270" ht="68.65">
@@ -7862,7 +8257,7 @@
         <v>308</v>
       </c>
       <c r="L270" t="s">
-        <v>859</v>
+        <v>934</v>
       </c>
     </row>
     <row r="271" ht="12.8">
@@ -7916,7 +8311,7 @@
         <v>313</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>860</v>
+        <v>935</v>
       </c>
     </row>
     <row r="280" ht="12.8">
@@ -7933,7 +8328,7 @@
         <v>315</v>
       </c>
       <c r="L280" t="s">
-        <v>861</v>
+        <v>936</v>
       </c>
     </row>
     <row r="281" ht="12.8">
@@ -7947,7 +8342,7 @@
         <v>317</v>
       </c>
       <c r="L281" t="s">
-        <v>862</v>
+        <v>937</v>
       </c>
     </row>
     <row r="282" ht="12.8">
@@ -7978,7 +8373,7 @@
         <v>319</v>
       </c>
       <c r="L283" t="s">
-        <v>863</v>
+        <v>938</v>
       </c>
     </row>
     <row r="284" ht="43.25">
@@ -7992,7 +8387,7 @@
         <v>321</v>
       </c>
       <c r="L284" t="s">
-        <v>864</v>
+        <v>939</v>
       </c>
     </row>
     <row r="285" ht="68.65">
@@ -8006,7 +8401,7 @@
         <v>323</v>
       </c>
       <c r="L285" t="s">
-        <v>865</v>
+        <v>940</v>
       </c>
     </row>
     <row r="286" ht="23.85">
@@ -8020,7 +8415,7 @@
         <v>325</v>
       </c>
       <c r="L286" t="s">
-        <v>866</v>
+        <v>941</v>
       </c>
     </row>
     <row r="287" ht="12.8">
@@ -8057,7 +8452,7 @@
         <v>331</v>
       </c>
       <c r="L294" t="s">
-        <v>867</v>
+        <v>942</v>
       </c>
     </row>
     <row r="295" ht="12.8">
@@ -8088,7 +8483,7 @@
         <v>333</v>
       </c>
       <c r="L296" t="s">
-        <v>868</v>
+        <v>943</v>
       </c>
     </row>
     <row r="297" ht="95.5">
@@ -8105,7 +8500,7 @@
         <v>335</v>
       </c>
       <c r="L297" t="s">
-        <v>869</v>
+        <v>944</v>
       </c>
     </row>
     <row r="298" ht="13.8">
@@ -8136,7 +8531,7 @@
         <v>337</v>
       </c>
       <c r="L299" t="s">
-        <v>870</v>
+        <v>945</v>
       </c>
     </row>
     <row r="300" ht="85.8">
@@ -8153,7 +8548,7 @@
         <v>339</v>
       </c>
       <c r="L300" t="s">
-        <v>871</v>
+        <v>946</v>
       </c>
     </row>
     <row r="301" ht="13.8">
@@ -8167,7 +8562,7 @@
         <v>341</v>
       </c>
       <c r="L301" t="s">
-        <v>872</v>
+        <v>947</v>
       </c>
     </row>
     <row r="302" ht="13.8">
@@ -8212,7 +8607,7 @@
         <v>343</v>
       </c>
       <c r="L304" t="s">
-        <v>873</v>
+        <v>948</v>
       </c>
     </row>
     <row r="305" ht="13.8">
@@ -8229,7 +8624,7 @@
         <v>345</v>
       </c>
       <c r="L305" t="s">
-        <v>874</v>
+        <v>949</v>
       </c>
     </row>
     <row r="306" ht="46.25">
@@ -8243,7 +8638,7 @@
         <v>347</v>
       </c>
       <c r="L306" t="s">
-        <v>875</v>
+        <v>950</v>
       </c>
     </row>
     <row r="307" ht="13.8">
@@ -8260,7 +8655,7 @@
         <v>349</v>
       </c>
       <c r="L307" t="s">
-        <v>876</v>
+        <v>951</v>
       </c>
     </row>
     <row r="308" ht="35.05">
@@ -8274,7 +8669,7 @@
         <v>351</v>
       </c>
       <c r="L308" t="s">
-        <v>877</v>
+        <v>952</v>
       </c>
     </row>
     <row r="309" ht="13.8">
@@ -8291,7 +8686,7 @@
         <v>353</v>
       </c>
       <c r="L309" t="s">
-        <v>878</v>
+        <v>953</v>
       </c>
     </row>
     <row r="310" ht="13.8">
@@ -8319,7 +8714,7 @@
         <v>355</v>
       </c>
       <c r="L311" t="s">
-        <v>879</v>
+        <v>954</v>
       </c>
     </row>
     <row r="312" ht="64.15">
@@ -8333,7 +8728,7 @@
         <v>357</v>
       </c>
       <c r="L312" t="s">
-        <v>880</v>
+        <v>955</v>
       </c>
     </row>
     <row r="313" ht="13.8">
@@ -8360,7 +8755,7 @@
         <v>360</v>
       </c>
       <c r="L318" t="s">
-        <v>881</v>
+        <v>956</v>
       </c>
     </row>
     <row r="319" ht="116.4">
@@ -8374,7 +8769,7 @@
         <v>362</v>
       </c>
       <c r="L319" t="s">
-        <v>882</v>
+        <v>957</v>
       </c>
     </row>
     <row r="320" ht="13.8">
@@ -8398,7 +8793,7 @@
         <v>366</v>
       </c>
       <c r="L321" t="s">
-        <v>883</v>
+        <v>958</v>
       </c>
     </row>
     <row r="322" ht="57.45">
@@ -8412,7 +8807,7 @@
         <v>368</v>
       </c>
       <c r="L322" t="s">
-        <v>884</v>
+        <v>959</v>
       </c>
     </row>
     <row r="323" ht="13.8">
@@ -8451,7 +8846,7 @@
         <v>371</v>
       </c>
       <c r="L330" t="s">
-        <v>885</v>
+        <v>960</v>
       </c>
     </row>
     <row r="331" ht="13.8">
@@ -8465,7 +8860,7 @@
         <v>373</v>
       </c>
       <c r="L331" t="s">
-        <v>886</v>
+        <v>961</v>
       </c>
     </row>
     <row r="332" ht="85.05">
@@ -8482,7 +8877,7 @@
         <v>375</v>
       </c>
       <c r="L332" t="s">
-        <v>887</v>
+        <v>962</v>
       </c>
     </row>
     <row r="333" ht="57.45">
@@ -8496,7 +8891,7 @@
         <v>377</v>
       </c>
       <c r="L333" t="s">
-        <v>888</v>
+        <v>963</v>
       </c>
     </row>
     <row r="334" ht="12.8">
@@ -8521,7 +8916,7 @@
         <v>379</v>
       </c>
       <c r="L336" t="s">
-        <v>889</v>
+        <v>964</v>
       </c>
     </row>
     <row r="338" ht="12.8">
@@ -8566,7 +8961,7 @@
         <v>385</v>
       </c>
       <c r="L344" s="4" t="s">
-        <v>890</v>
+        <v>965</v>
       </c>
     </row>
     <row r="345" s="1" customFormat="1" ht="12.8">
@@ -8659,7 +9054,7 @@
         <v>387</v>
       </c>
       <c r="L350" s="4" t="s">
-        <v>891</v>
+        <v>966</v>
       </c>
     </row>
     <row r="351" s="1" customFormat="1" ht="13.8">
@@ -8683,7 +9078,7 @@
         <v>389</v>
       </c>
       <c r="L351" s="4" t="s">
-        <v>892</v>
+        <v>967</v>
       </c>
     </row>
     <row r="352" s="1" customFormat="1" ht="57.45">
@@ -8707,7 +9102,7 @@
         <v>391</v>
       </c>
       <c r="L352" s="4" t="s">
-        <v>893</v>
+        <v>968</v>
       </c>
     </row>
     <row r="353" s="1" customFormat="1" ht="12.8">
@@ -8731,7 +9126,7 @@
         <v>393</v>
       </c>
       <c r="L353" s="4" t="s">
-        <v>894</v>
+        <v>969</v>
       </c>
     </row>
     <row r="354" s="1" customFormat="1" ht="35.05">
@@ -8755,7 +9150,7 @@
         <v>395</v>
       </c>
       <c r="L354" s="4" t="s">
-        <v>895</v>
+        <v>970</v>
       </c>
     </row>
     <row r="355" s="1" customFormat="1" ht="13.8">
@@ -8803,7 +9198,7 @@
         <v>397</v>
       </c>
       <c r="L356" s="4" t="s">
-        <v>896</v>
+        <v>971</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="13.8">
@@ -8827,7 +9222,7 @@
         <v>399</v>
       </c>
       <c r="L357" s="4" t="s">
-        <v>897</v>
+        <v>972</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="22.35">
@@ -8875,7 +9270,7 @@
         <v>401</v>
       </c>
       <c r="L359" s="4" t="s">
-        <v>898</v>
+        <v>973</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="23.85">
@@ -8899,7 +9294,7 @@
         <v>403</v>
       </c>
       <c r="L360" s="4" t="s">
-        <v>899</v>
+        <v>974</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="23.85">
@@ -8923,7 +9318,7 @@
         <v>405</v>
       </c>
       <c r="L361" s="4" t="s">
-        <v>900</v>
+        <v>975</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="13.8">
@@ -9015,7 +9410,7 @@
         <v>410</v>
       </c>
       <c r="L366" s="4" t="s">
-        <v>901</v>
+        <v>976</v>
       </c>
     </row>
     <row r="367" s="1" customFormat="1" ht="13.8">
@@ -9087,7 +9482,7 @@
         <v>412</v>
       </c>
       <c r="L369" s="4" t="s">
-        <v>902</v>
+        <v>977</v>
       </c>
     </row>
     <row r="370" s="1" customFormat="1" ht="12.8">
@@ -9111,7 +9506,7 @@
         <v>414</v>
       </c>
       <c r="L370" s="4" t="s">
-        <v>903</v>
+        <v>978</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" ht="12.8">
@@ -9135,7 +9530,7 @@
         <v>416</v>
       </c>
       <c r="L371" s="4" t="s">
-        <v>904</v>
+        <v>979</v>
       </c>
     </row>
     <row r="372" s="1" customFormat="1" ht="23.85">
@@ -9159,7 +9554,7 @@
         <v>418</v>
       </c>
       <c r="L372" s="4" t="s">
-        <v>905</v>
+        <v>980</v>
       </c>
     </row>
     <row r="373" s="1" customFormat="1" ht="23.85">
@@ -9183,7 +9578,7 @@
         <v>420</v>
       </c>
       <c r="L373" s="4" t="s">
-        <v>906</v>
+        <v>981</v>
       </c>
     </row>
     <row r="374" s="1" customFormat="1" ht="12.8">
@@ -9224,7 +9619,7 @@
         <v>422</v>
       </c>
       <c r="L375" s="4" t="s">
-        <v>907</v>
+        <v>982</v>
       </c>
     </row>
     <row r="376" s="1" customFormat="1" ht="12.8">
@@ -9273,7 +9668,7 @@
         <v>424</v>
       </c>
       <c r="L378" s="4" t="s">
-        <v>908</v>
+        <v>983</v>
       </c>
     </row>
     <row r="379" s="1" customFormat="1" ht="12.8">
@@ -9297,7 +9692,7 @@
         <v>426</v>
       </c>
       <c r="L379" s="4" t="s">
-        <v>909</v>
+        <v>984</v>
       </c>
     </row>
     <row r="380" s="1" customFormat="1" ht="12.8">
@@ -9345,7 +9740,7 @@
         <v>428</v>
       </c>
       <c r="L381" s="4" t="s">
-        <v>910</v>
+        <v>985</v>
       </c>
     </row>
     <row r="382" s="1" customFormat="1" ht="23.85">
@@ -9369,7 +9764,7 @@
         <v>430</v>
       </c>
       <c r="L382" s="4" t="s">
-        <v>911</v>
+        <v>986</v>
       </c>
     </row>
     <row r="383" s="1" customFormat="1" ht="12.8">
@@ -9393,7 +9788,7 @@
         <v>432</v>
       </c>
       <c r="L383" s="4" t="s">
-        <v>912</v>
+        <v>987</v>
       </c>
     </row>
     <row r="384" s="1" customFormat="1" ht="35.05">
@@ -9417,7 +9812,7 @@
         <v>434</v>
       </c>
       <c r="L384" s="4" t="s">
-        <v>913</v>
+        <v>988</v>
       </c>
     </row>
     <row r="385" s="1" customFormat="1" ht="13.8">
@@ -9441,7 +9836,7 @@
         <v>436</v>
       </c>
       <c r="L385" s="4" t="s">
-        <v>914</v>
+        <v>989</v>
       </c>
     </row>
     <row r="386" s="1" customFormat="1" ht="13.8">
@@ -9465,7 +9860,7 @@
         <v>438</v>
       </c>
       <c r="L386" s="4" t="s">
-        <v>915</v>
+        <v>990</v>
       </c>
     </row>
     <row r="387" s="1" customFormat="1" ht="13.8">
@@ -9489,7 +9884,7 @@
         <v>440</v>
       </c>
       <c r="L387" s="4" t="s">
-        <v>916</v>
+        <v>991</v>
       </c>
     </row>
     <row r="388" s="1" customFormat="1" ht="13.8">
@@ -9513,7 +9908,7 @@
         <v>442</v>
       </c>
       <c r="L388" s="4" t="s">
-        <v>917</v>
+        <v>992</v>
       </c>
     </row>
     <row r="389" s="1" customFormat="1" ht="13.8">
@@ -9537,7 +9932,7 @@
         <v>444</v>
       </c>
       <c r="L389" s="4" t="s">
-        <v>918</v>
+        <v>993</v>
       </c>
     </row>
     <row r="390" s="1" customFormat="1" ht="13.8">
@@ -9561,7 +9956,7 @@
         <v>446</v>
       </c>
       <c r="L390" s="4" t="s">
-        <v>919</v>
+        <v>994</v>
       </c>
     </row>
     <row r="391" s="1" customFormat="1" ht="13.8">
@@ -9585,7 +9980,7 @@
         <v>448</v>
       </c>
       <c r="L391" s="4" t="s">
-        <v>901</v>
+        <v>976</v>
       </c>
     </row>
     <row r="392" s="1" customFormat="1" ht="23.85">
@@ -9609,7 +10004,7 @@
         <v>450</v>
       </c>
       <c r="L392" s="4" t="s">
-        <v>920</v>
+        <v>995</v>
       </c>
     </row>
     <row r="393" s="1" customFormat="1" ht="13.8">
@@ -9633,7 +10028,7 @@
         <v>452</v>
       </c>
       <c r="L393" s="4" t="s">
-        <v>921</v>
+        <v>996</v>
       </c>
     </row>
     <row r="394" s="1" customFormat="1" ht="13.8">
@@ -9670,7 +10065,7 @@
         <v>454</v>
       </c>
       <c r="L395" s="4" t="s">
-        <v>922</v>
+        <v>997</v>
       </c>
     </row>
     <row r="396" s="1" customFormat="1" ht="13.8">
@@ -9694,7 +10089,7 @@
         <v>456</v>
       </c>
       <c r="L396" s="4" t="s">
-        <v>923</v>
+        <v>998</v>
       </c>
     </row>
     <row r="397" s="1" customFormat="1" ht="13.8">
@@ -9731,7 +10126,7 @@
         <v>458</v>
       </c>
       <c r="L398" s="4" t="s">
-        <v>922</v>
+        <v>997</v>
       </c>
     </row>
     <row r="399" s="1" customFormat="1" ht="13.8">
@@ -9755,7 +10150,7 @@
         <v>460</v>
       </c>
       <c r="L399" s="4" t="s">
-        <v>924</v>
+        <v>999</v>
       </c>
     </row>
     <row r="400" s="1" customFormat="1" ht="13.8">
@@ -9816,7 +10211,7 @@
         <v>462</v>
       </c>
       <c r="L402" s="4" t="s">
-        <v>925</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="403" s="1" customFormat="1" ht="13.8">
@@ -9864,7 +10259,7 @@
         <v>464</v>
       </c>
       <c r="L404" s="4" t="s">
-        <v>926</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="405" s="1" customFormat="1" ht="13.8">
@@ -9888,7 +10283,7 @@
         <v>466</v>
       </c>
       <c r="L405" s="4" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="406" s="1" customFormat="1" ht="23.85">
@@ -9912,7 +10307,7 @@
         <v>468</v>
       </c>
       <c r="L406" s="4" t="s">
-        <v>928</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="407" s="1" customFormat="1" ht="23.85">
@@ -9936,7 +10331,7 @@
         <v>470</v>
       </c>
       <c r="L407" s="4" t="s">
-        <v>929</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="408" s="1" customFormat="1" ht="35.05">
@@ -9960,7 +10355,7 @@
         <v>472</v>
       </c>
       <c r="L408" s="4" t="s">
-        <v>930</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="409" s="1" customFormat="1" ht="13.8">
@@ -9984,7 +10379,7 @@
         <v>474</v>
       </c>
       <c r="L409" s="4" t="s">
-        <v>931</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="410" s="1" customFormat="1" ht="13.8">
@@ -10008,7 +10403,7 @@
         <v>476</v>
       </c>
       <c r="L410" s="4" t="s">
-        <v>932</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="411" s="1" customFormat="1" ht="13.8">
@@ -10056,7 +10451,7 @@
         <v>478</v>
       </c>
       <c r="L412" s="4" t="s">
-        <v>933</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="413" s="1" customFormat="1" ht="23.85">
@@ -10080,7 +10475,7 @@
         <v>480</v>
       </c>
       <c r="L413" s="4" t="s">
-        <v>934</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="414" s="1" customFormat="1" ht="13.8">
@@ -10104,7 +10499,7 @@
         <v>482</v>
       </c>
       <c r="L414" s="4" t="s">
-        <v>935</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="415" s="1" customFormat="1" ht="57.45">
@@ -10128,7 +10523,7 @@
         <v>484</v>
       </c>
       <c r="L415" s="4" t="s">
-        <v>936</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="416" s="1" customFormat="1" ht="13.8">
@@ -10152,7 +10547,7 @@
         <v>486</v>
       </c>
       <c r="L416" s="4" t="s">
-        <v>937</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="417" s="1" customFormat="1" ht="13.8">
@@ -10176,7 +10571,7 @@
         <v>458</v>
       </c>
       <c r="L417" s="4" t="s">
-        <v>938</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="418" s="1" customFormat="1" ht="13.8">
@@ -10224,7 +10619,7 @@
         <v>488</v>
       </c>
       <c r="L419" s="4" t="s">
-        <v>939</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="420" s="1" customFormat="1" ht="13.8">
@@ -10272,7 +10667,7 @@
         <v>490</v>
       </c>
       <c r="L421" s="4" t="s">
-        <v>940</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="422" s="1" customFormat="1" ht="13.8">
@@ -10296,7 +10691,7 @@
         <v>492</v>
       </c>
       <c r="L422" s="4" t="s">
-        <v>941</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="423" s="1" customFormat="1" ht="12.8">
@@ -10376,7 +10771,7 @@
         <v>496</v>
       </c>
       <c r="L430" s="4" t="s">
-        <v>942</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="431" s="1" customFormat="1" ht="13.8">
@@ -10400,7 +10795,7 @@
         <v>498</v>
       </c>
       <c r="L431" s="4" t="s">
-        <v>943</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="432" s="1" customFormat="1" ht="25.35">
@@ -10422,7 +10817,7 @@
         <v>500</v>
       </c>
       <c r="L432" s="4" t="s">
-        <v>944</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="433" s="1" customFormat="1" ht="102.2">
@@ -10446,7 +10841,7 @@
         <v>502</v>
       </c>
       <c r="L433" s="4" t="s">
-        <v>945</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="434" s="1" customFormat="1" ht="13.8">
@@ -10470,7 +10865,7 @@
         <v>504</v>
       </c>
       <c r="L434" s="4" t="s">
-        <v>946</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="435" s="1" customFormat="1" ht="13.8">
@@ -10494,7 +10889,7 @@
         <v>505</v>
       </c>
       <c r="L435" s="4" t="s">
-        <v>938</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="436" s="1" customFormat="1" ht="23.85">
@@ -10518,7 +10913,7 @@
         <v>507</v>
       </c>
       <c r="L436" s="4" t="s">
-        <v>947</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="437" s="1" customFormat="1" ht="57.45">
@@ -10542,7 +10937,7 @@
         <v>509</v>
       </c>
       <c r="L437" s="4" t="s">
-        <v>948</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="438" s="1" customFormat="1" ht="46.25">
@@ -10564,7 +10959,7 @@
         <v>511</v>
       </c>
       <c r="L438" s="4" t="s">
-        <v>949</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="439" s="1" customFormat="1" ht="13.8">
@@ -10588,7 +10983,7 @@
         <v>513</v>
       </c>
       <c r="L439" s="4" t="s">
-        <v>950</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="440" s="1" customFormat="1" ht="23.85">
@@ -10610,7 +11005,7 @@
         <v>515</v>
       </c>
       <c r="L440" s="4" t="s">
-        <v>951</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="441" ht="12.8">
@@ -10647,7 +11042,7 @@
         <v>215</v>
       </c>
       <c r="L446" t="s">
-        <v>952</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="447" ht="23.85">
@@ -10662,7 +11057,7 @@
         <v>217</v>
       </c>
       <c r="L447" t="s">
-        <v>953</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="448" ht="13.8">
@@ -10675,7 +11070,7 @@
       </c>
       <c r="K448" s="14"/>
       <c r="L448" t="s">
-        <v>954</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="449" ht="35.05">
@@ -10688,7 +11083,7 @@
       </c>
       <c r="K449" s="14"/>
       <c r="L449" t="s">
-        <v>955</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="450" ht="13.8">
@@ -10701,7 +11096,7 @@
       </c>
       <c r="K450" s="14"/>
       <c r="L450" t="s">
-        <v>956</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="451" ht="12.8">
@@ -10738,7 +11133,7 @@
         <v>525</v>
       </c>
       <c r="L460" t="s">
-        <v>957</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="461" ht="46.25">
@@ -10752,7 +11147,7 @@
         <v>527</v>
       </c>
       <c r="L461" t="s">
-        <v>958</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="462" ht="23.85">
@@ -10769,7 +11164,7 @@
         <v>529</v>
       </c>
       <c r="L462" t="s">
-        <v>959</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="463" ht="35.05">
@@ -10783,7 +11178,7 @@
         <v>531</v>
       </c>
       <c r="L463" t="s">
-        <v>960</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="464" ht="35.05">
@@ -10797,7 +11192,7 @@
         <v>533</v>
       </c>
       <c r="L464" t="s">
-        <v>961</v>
+        <v>1036</v>
       </c>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
@@ -10816,7 +11211,7 @@
         <v>535</v>
       </c>
       <c r="L465" t="s">
-        <v>962</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="466" ht="37.3">
@@ -10830,7 +11225,7 @@
         <v>537</v>
       </c>
       <c r="L466" t="s">
-        <v>963</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="467" ht="13.8">
@@ -10844,7 +11239,7 @@
         <v>539</v>
       </c>
       <c r="L467" t="s">
-        <v>964</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="468" ht="13.8">
@@ -10858,7 +11253,7 @@
         <v>541</v>
       </c>
       <c r="L468" t="s">
-        <v>965</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="469" ht="13.8">
@@ -10902,7 +11297,7 @@
         <v>543</v>
       </c>
       <c r="L471" t="s">
-        <v>966</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="472" ht="35.05">
@@ -10919,7 +11314,7 @@
         <v>545</v>
       </c>
       <c r="L472" t="s">
-        <v>967</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="473" ht="13.8">
@@ -10933,7 +11328,7 @@
         <v>547</v>
       </c>
       <c r="L473" t="s">
-        <v>968</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="474" ht="13.8">
@@ -10960,7 +11355,7 @@
         <v>549</v>
       </c>
       <c r="L475" t="s">
-        <v>969</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="476" ht="13.8">
@@ -10977,7 +11372,7 @@
         <v>551</v>
       </c>
       <c r="L476" t="s">
-        <v>970</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="477" ht="79.85">
@@ -10994,7 +11389,7 @@
         <v>553</v>
       </c>
       <c r="L477" t="s">
-        <v>971</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="478" ht="102.2">
@@ -11011,7 +11406,7 @@
         <v>555</v>
       </c>
       <c r="L478" t="s">
-        <v>972</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="479" ht="13.8">
@@ -11042,7 +11437,7 @@
         <v>557</v>
       </c>
       <c r="L480" t="s">
-        <v>973</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="481" ht="23.85">
@@ -11059,7 +11454,7 @@
         <v>559</v>
       </c>
       <c r="L481" t="s">
-        <v>974</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="482" ht="23.85">
@@ -11076,7 +11471,7 @@
         <v>561</v>
       </c>
       <c r="L482" t="s">
-        <v>975</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="483" ht="13.8">
@@ -11093,7 +11488,7 @@
         <v>513</v>
       </c>
       <c r="L483" t="s">
-        <v>976</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="484" ht="13.8">
@@ -11107,7 +11502,7 @@
         <v>564</v>
       </c>
       <c r="L484" t="s">
-        <v>977</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="485" ht="13.8">
@@ -11135,7 +11530,7 @@
         <v>566</v>
       </c>
       <c r="L486" t="s">
-        <v>978</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="487" ht="46.25">
@@ -11149,7 +11544,7 @@
         <v>568</v>
       </c>
       <c r="L487" t="s">
-        <v>979</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="488" ht="35.05">
@@ -11163,7 +11558,7 @@
         <v>570</v>
       </c>
       <c r="L488" t="s">
-        <v>980</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="489" ht="35.05">
@@ -11177,7 +11572,7 @@
         <v>572</v>
       </c>
       <c r="L489" t="s">
-        <v>981</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="490" ht="46.25">
@@ -11191,7 +11586,7 @@
         <v>574</v>
       </c>
       <c r="L490" t="s">
-        <v>982</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="491" ht="13.8">
@@ -11227,7 +11622,7 @@
         <v>578</v>
       </c>
       <c r="L498" t="s">
-        <v>983</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="499" ht="79.85">
@@ -11241,7 +11636,7 @@
         <v>580</v>
       </c>
       <c r="L499" t="s">
-        <v>984</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="500" ht="12.8">
@@ -11273,7 +11668,7 @@
         <v>584</v>
       </c>
       <c r="L506" t="s">
-        <v>985</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="507" ht="13.8">
@@ -11301,7 +11696,7 @@
         <v>586</v>
       </c>
       <c r="L508" t="s">
-        <v>986</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="509" ht="13.8">
@@ -11334,7 +11729,7 @@
         <v>589</v>
       </c>
       <c r="L513" t="s">
-        <v>987</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="514" ht="13.8">
@@ -11362,7 +11757,7 @@
         <v>591</v>
       </c>
       <c r="L515" t="s">
-        <v>988</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="516" ht="13.8">
@@ -11395,7 +11790,7 @@
         <v>594</v>
       </c>
       <c r="L520" t="s">
-        <v>989</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="521" ht="79.85">
@@ -11409,7 +11804,7 @@
         <v>596</v>
       </c>
       <c r="L521" t="s">
-        <v>990</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="522" ht="13.8">
@@ -11450,7 +11845,7 @@
         <v>599</v>
       </c>
       <c r="L527" t="s">
-        <v>991</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="528" ht="13.8">
@@ -11468,7 +11863,7 @@
         <v>601</v>
       </c>
       <c r="L529" t="s">
-        <v>992</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="530" ht="13.8">
@@ -11495,7 +11890,7 @@
         <v>603</v>
       </c>
       <c r="L532" t="s">
-        <v>993</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="533" ht="43.25">
@@ -11509,7 +11904,7 @@
         <v>605</v>
       </c>
       <c r="L533" t="s">
-        <v>994</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="534" ht="57.45">
@@ -11523,7 +11918,7 @@
         <v>607</v>
       </c>
       <c r="L534" t="s">
-        <v>995</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="535" ht="13.8">
@@ -11556,7 +11951,7 @@
         <v>610</v>
       </c>
       <c r="L539" t="s">
-        <v>996</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="540" ht="79.85">
@@ -11570,7 +11965,7 @@
         <v>612</v>
       </c>
       <c r="L540" t="s">
-        <v>997</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="541" ht="46.25">
@@ -11584,7 +11979,7 @@
         <v>614</v>
       </c>
       <c r="L541" t="s">
-        <v>998</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="542" ht="13.8">
@@ -11617,7 +12012,7 @@
         <v>617</v>
       </c>
       <c r="L546" t="s">
-        <v>999</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="547" ht="12.8">
@@ -11635,7 +12030,7 @@
         <v>619</v>
       </c>
       <c r="L547" t="s">
-        <v>1000</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="548" ht="12.8">
@@ -11702,7 +12097,7 @@
         <v>625</v>
       </c>
       <c r="L553" t="s">
-        <v>1001</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="554" ht="13.8">
@@ -11723,7 +12118,7 @@
         <v>628</v>
       </c>
       <c r="L555" t="s">
-        <v>1002</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="556" ht="13.8">
@@ -11750,7 +12145,7 @@
         <v>633</v>
       </c>
       <c r="L557" t="s">
-        <v>1003</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="558" ht="13.8">
@@ -11767,7 +12162,7 @@
         <v>636</v>
       </c>
       <c r="L558" t="s">
-        <v>1004</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="559" ht="13.8">
@@ -11784,7 +12179,7 @@
         <v>639</v>
       </c>
       <c r="L559" t="s">
-        <v>1005</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="560" ht="13.8">
@@ -11798,7 +12193,7 @@
         <v>641</v>
       </c>
       <c r="L560" t="s">
-        <v>1006</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="561" ht="23.85">
@@ -11815,7 +12210,7 @@
         <v>643</v>
       </c>
       <c r="L561" t="s">
-        <v>1007</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="562" ht="13.8">
@@ -11842,7 +12237,7 @@
         <v>645</v>
       </c>
       <c r="L563" t="s">
-        <v>1008</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="564" ht="23.85">
@@ -11859,7 +12254,7 @@
         <v>647</v>
       </c>
       <c r="L564" t="s">
-        <v>1009</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="565" ht="13.8">
@@ -11887,7 +12282,7 @@
         <v>649</v>
       </c>
       <c r="L566" t="s">
-        <v>1010</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="567" ht="23.85">
@@ -11904,7 +12299,7 @@
         <v>651</v>
       </c>
       <c r="L567" t="s">
-        <v>1011</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="568" ht="13.8">
@@ -11921,7 +12316,7 @@
         <v>654</v>
       </c>
       <c r="L568" t="s">
-        <v>1012</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="569" ht="13.8">
@@ -11949,7 +12344,7 @@
         <v>633</v>
       </c>
       <c r="L570" t="s">
-        <v>1003</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="571" ht="13.8">
@@ -11963,7 +12358,7 @@
         <v>656</v>
       </c>
       <c r="L571" t="s">
-        <v>1013</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="572" ht="23.85">
@@ -11977,7 +12372,7 @@
         <v>658</v>
       </c>
       <c r="L572" t="s">
-        <v>1014</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="573" ht="57.45">
@@ -11994,7 +12389,7 @@
         <v>660</v>
       </c>
       <c r="L573" t="s">
-        <v>1015</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="574" ht="13.8">
@@ -12008,7 +12403,7 @@
         <v>662</v>
       </c>
       <c r="L574" t="s">
-        <v>1016</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="575" ht="13.8">
@@ -12025,7 +12420,7 @@
         <v>664</v>
       </c>
       <c r="L575" t="s">
-        <v>1017</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="576" ht="23.85">
@@ -12042,7 +12437,7 @@
         <v>666</v>
       </c>
       <c r="L576" t="s">
-        <v>1018</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="577" ht="13.8">
@@ -12056,7 +12451,7 @@
         <v>668</v>
       </c>
       <c r="L577" t="s">
-        <v>1019</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="578" ht="13.8">
@@ -12073,7 +12468,7 @@
         <v>670</v>
       </c>
       <c r="L578" t="s">
-        <v>1020</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="579" ht="23.85">
@@ -12087,7 +12482,7 @@
         <v>672</v>
       </c>
       <c r="L579" t="s">
-        <v>1021</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="580" ht="13.8">
@@ -12104,7 +12499,7 @@
         <v>674</v>
       </c>
       <c r="L580" t="s">
-        <v>1022</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="581" ht="13.8">
@@ -12139,7 +12534,7 @@
         <v>676</v>
       </c>
       <c r="L583" t="s">
-        <v>1023</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="584" ht="13.8">
@@ -12153,7 +12548,7 @@
         <v>678</v>
       </c>
       <c r="L584" t="s">
-        <v>1024</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="585" ht="46.25">
@@ -12170,7 +12565,7 @@
         <v>680</v>
       </c>
       <c r="L585" t="s">
-        <v>1025</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="586" ht="23.85">
@@ -12185,7 +12580,7 @@
         <v>682</v>
       </c>
       <c r="L586" t="s">
-        <v>1026</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="587" ht="53.7">
@@ -12202,7 +12597,7 @@
         <v>684</v>
       </c>
       <c r="L587" t="s">
-        <v>1027</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="588" ht="64.15">
@@ -12219,7 +12614,7 @@
         <v>686</v>
       </c>
       <c r="L588" t="s">
-        <v>1028</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="589" ht="13.8">
@@ -12251,7 +12646,7 @@
         <v>688</v>
       </c>
       <c r="L590" t="s">
-        <v>1029</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="591" ht="13.8">
@@ -12281,7 +12676,7 @@
         <v>690</v>
       </c>
       <c r="L592" t="s">
-        <v>1030</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="593" ht="79.85">
@@ -12298,7 +12693,7 @@
         <v>692</v>
       </c>
       <c r="L593" t="s">
-        <v>1031</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="594" ht="13.8">
@@ -12326,7 +12721,7 @@
         <v>633</v>
       </c>
       <c r="L595" t="s">
-        <v>1003</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="596" ht="13.8">
@@ -12402,7 +12797,7 @@
         <v>695</v>
       </c>
       <c r="L605" t="s">
-        <v>1032</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="606" ht="13.8">
@@ -12433,7 +12828,7 @@
         <v>697</v>
       </c>
       <c r="L607" t="s">
-        <v>1033</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="608" ht="13.8">
@@ -12546,7 +12941,7 @@
         <v>704</v>
       </c>
       <c r="L623" t="s">
-        <v>1034</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="624" ht="13.8">
@@ -12564,7 +12959,7 @@
         <v>706</v>
       </c>
       <c r="L624" t="s">
-        <v>1035</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="625" ht="13.8">
@@ -12579,7 +12974,7 @@
         <v>708</v>
       </c>
       <c r="L625" t="s">
-        <v>1036</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="626" ht="13.8">
@@ -12597,7 +12992,7 @@
         <v>710</v>
       </c>
       <c r="L626" t="s">
-        <v>1037</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="627" ht="13.8">
@@ -12612,7 +13007,7 @@
         <v>712</v>
       </c>
       <c r="L627" t="s">
-        <v>1038</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="628" s="1" customFormat="1" ht="13.8">
@@ -12658,7 +13053,7 @@
         <v>706</v>
       </c>
       <c r="L630" t="s">
-        <v>1035</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="631" ht="13.4" customHeight="1">
@@ -12685,7 +13080,7 @@
         <v>715</v>
       </c>
       <c r="L632" t="s">
-        <v>1039</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="633" ht="13.8">
@@ -12703,7 +13098,7 @@
         <v>717</v>
       </c>
       <c r="L633" t="s">
-        <v>1040</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="634" ht="23.85">
@@ -12719,7 +13114,7 @@
         <v>719</v>
       </c>
       <c r="L634" t="s">
-        <v>1041</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="635" ht="13.8">
@@ -12739,7 +13134,7 @@
         <v>721</v>
       </c>
       <c r="L635" t="s">
-        <v>1042</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="636" ht="13.8">
@@ -12755,7 +13150,7 @@
         <v>723</v>
       </c>
       <c r="L636" t="s">
-        <v>1043</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="637" ht="13.8">
@@ -12779,7 +13174,7 @@
         <v>726</v>
       </c>
       <c r="L638" t="s">
-        <v>1044</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="639" ht="13.8">
@@ -12833,7 +13228,7 @@
         <v>728</v>
       </c>
       <c r="L641" t="s">
-        <v>1045</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="642" ht="13.8">
@@ -12869,7 +13264,7 @@
         <v>706</v>
       </c>
       <c r="L643" t="s">
-        <v>1035</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="644" ht="13.8">
@@ -12905,7 +13300,7 @@
         <v>730</v>
       </c>
       <c r="L645" t="s">
-        <v>1046</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="646" ht="13.8">
@@ -12934,7 +13329,7 @@
         <v>733</v>
       </c>
       <c r="L647" t="s">
-        <v>1047</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="648" ht="13.8">
@@ -12950,7 +13345,7 @@
         <v>735</v>
       </c>
       <c r="L648" t="s">
-        <v>1048</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="649" ht="13.8">
@@ -12966,7 +13361,7 @@
         <v>737</v>
       </c>
       <c r="L649" t="s">
-        <v>1049</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="650" ht="13.8">
@@ -13013,11 +13408,663 @@
       <c r="G656" s="2"/>
     </row>
     <row r="657" ht="12.8">
+      <c r="A657" s="1" t="s">
+        <v>738</v>
+      </c>
       <c r="F657" s="1"/>
       <c r="G657" s="2"/>
     </row>
+    <row r="658" ht="12.8">
+      <c r="E658" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F658" s="13" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="659" ht="13.8">
+      <c r="I659" s="1">
+        <v>390</v>
+      </c>
+      <c r="J659" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="K659" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="L659" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="660" ht="13.8">
+      <c r="G660" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I660" s="1">
+        <v>391</v>
+      </c>
+      <c r="J660" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="K660" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="L660" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="661" ht="13.8">
+      <c r="I661" s="1">
+        <v>392</v>
+      </c>
+      <c r="J661" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="K661" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="L661" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="662" ht="13.8">
+      <c r="G662" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I662" s="1">
+        <v>393</v>
+      </c>
+      <c r="J662" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="K662" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="L662" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="663" ht="13.8">
+      <c r="I663" s="1">
+        <v>394</v>
+      </c>
+      <c r="J663" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="K663" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="L663" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="664" ht="74.6">
+      <c r="G664" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I664" s="1">
+        <v>395</v>
+      </c>
+      <c r="J664" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="K664" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="L664" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="665" ht="46.25">
+      <c r="I665" s="1">
+        <v>396</v>
+      </c>
+      <c r="J665" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="K665" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="L665" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="667" ht="12.8">
+      <c r="E667" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F667" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="668" ht="12.8">
+      <c r="E668" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F668" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" ht="12.8">
+      <c r="E669" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F669" s="23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="670" ht="12.8">
+      <c r="E670" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F670" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="671" ht="12.8">
+      <c r="E671" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F671" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" ht="13.8">
+      <c r="G672" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I672" s="1">
+        <v>397</v>
+      </c>
+      <c r="J672" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="K672" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="L672" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="673" ht="13.8">
+      <c r="G673" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I673" s="1">
+        <v>398</v>
+      </c>
+      <c r="J673" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="K673" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="L673" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="674" ht="13.8">
+      <c r="G674" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I674" s="1">
+        <v>399</v>
+      </c>
+      <c r="J674" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="K674" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="L674" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="675" ht="13.8">
+      <c r="G675" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I675" s="1">
+        <v>400</v>
+      </c>
+      <c r="J675" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="K675" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="L675" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="676" ht="13.8">
+      <c r="I676" s="1">
+        <v>401</v>
+      </c>
+      <c r="J676" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="K676" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="L676" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="677" ht="13.8">
+      <c r="G677" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I677" s="1">
+        <v>402</v>
+      </c>
+      <c r="J677" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="K677" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="L677" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="678" ht="13.8">
+      <c r="I678" s="1">
+        <v>403</v>
+      </c>
+      <c r="J678" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="K678" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="L678" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="679" ht="13.8">
+      <c r="G679" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I679" s="1">
+        <v>404</v>
+      </c>
+      <c r="J679" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="K679" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="L679" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="680" ht="13.8">
+      <c r="I680" s="1">
+        <v>405</v>
+      </c>
+      <c r="J680" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="K680" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="L680" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="681" ht="53.7">
+      <c r="G681" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I681" s="1">
+        <v>406</v>
+      </c>
+      <c r="J681" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="K681" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="L681" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="682" ht="13.8">
+      <c r="I682" s="1">
+        <v>407</v>
+      </c>
+      <c r="J682" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="K682" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="L682" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="683" ht="13.8">
+      <c r="G683" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I683" s="1">
+        <v>408</v>
+      </c>
+      <c r="J683" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="K683" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="L683" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="684" ht="57.45">
+      <c r="G684" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I684" s="1">
+        <v>409</v>
+      </c>
+      <c r="J684" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="K684" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="L684" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="685" ht="116.4">
+      <c r="G685" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I685" s="1">
+        <v>410</v>
+      </c>
+      <c r="J685" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="K685" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="L685" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="686" ht="57.45">
+      <c r="G686" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I686" s="1">
+        <v>411</v>
+      </c>
+      <c r="J686" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="K686" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="L686" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="687" ht="13.8">
+      <c r="G687" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I687" s="1">
+        <v>412</v>
+      </c>
+      <c r="J687" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="K687" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="L687" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="688" ht="13.8">
+      <c r="J688" s="6"/>
+    </row>
+    <row r="689" ht="13.8">
+      <c r="G689" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I689" s="1">
+        <v>413</v>
+      </c>
+      <c r="J689" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="K689" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="L689" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="690" ht="85.05">
+      <c r="I690" s="1">
+        <v>414</v>
+      </c>
+      <c r="J690" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="K690" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="L690" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="691" ht="13.8">
+      <c r="G691" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I691" s="1">
+        <v>415</v>
+      </c>
+      <c r="J691" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="K691" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="L691" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="692" ht="13.8">
+      <c r="I692" s="1">
+        <v>416</v>
+      </c>
+      <c r="J692" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="K692" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="L692" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="693" ht="13.8">
+      <c r="G693" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I693" s="1">
+        <v>417</v>
+      </c>
+      <c r="J693" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="K693" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="L693" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="694" ht="13.8">
+      <c r="G694" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I694" s="1">
+        <v>418</v>
+      </c>
+      <c r="J694" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K694" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L694" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="695" ht="13.8">
+      <c r="J695" s="6"/>
+    </row>
+    <row r="696" ht="13.8">
+      <c r="G696" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I696" s="1">
+        <v>419</v>
+      </c>
+      <c r="J696" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="K696" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="L696" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="697" ht="13.8">
+      <c r="I697" s="1">
+        <v>420</v>
+      </c>
+      <c r="J697" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="K697" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="L697" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="698" ht="53.7">
+      <c r="G698" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I698" s="1">
+        <v>421</v>
+      </c>
+      <c r="J698" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="K698" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="L698" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="699" ht="13.8">
+      <c r="G699" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I699" s="1">
+        <v>422</v>
+      </c>
+      <c r="J699" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="K699" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="L699" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="700" ht="13.8">
+      <c r="G700" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I700" s="1">
+        <v>423</v>
+      </c>
+      <c r="J700" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="K700" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="L700" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="701" ht="13.8">
+      <c r="I701" s="1">
+        <v>424</v>
+      </c>
+      <c r="J701" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="K701" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="L701" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="702" ht="53.7">
+      <c r="G702" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I702" s="1">
+        <v>425</v>
+      </c>
+      <c r="J702" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="K702" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="L702" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="703" ht="13.8">
+      <c r="J703" s="6"/>
+    </row>
+    <row r="704" ht="13.8">
+      <c r="J704" s="6"/>
+    </row>
+    <row r="707" ht="12.8">
+      <c r="E707" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F707" s="17" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="709" ht="12.8">
+      <c r="E709" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I108:I339 I4:I106 J656:J657 J615:J619 J650:J651 J623 J637 I616:I1048576 I611:I614 I341:I553 J547:J550 I599:I601 J599 I597:J598">
+  <conditionalFormatting sqref="I108:I339 I4:I106 J656 J615:J619 J650:J651 J623 J637 I658:I1048576 I611:I614 I341:I553 J547:J550 I599:I601 J599 I597:J598 I616:I656">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I602:I610 I564:I596 I554:I561">
@@ -13025,6 +14072,9 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I562:I563">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I657:J657">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Original/CN/Dialog/Drama/loytel.xlsx
+++ b/Original/CN/Dialog/Drama/loytel.xlsx
@@ -1892,20 +1892,49 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">無残な死体がそこら中に転がっているな。これも鋼鉄竜の仕業か？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look at these gruesome corpses strewn everywhere. Is this the work of the Steel Dragon?</t>
+    <t xml:space="preserve">焼け焦げた無残な死体がそこら中に転がっているな。これも鋼鉄竜の仕業か？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Look at these gruesome </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">charred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> corpses strewn everywhere. Is this the work of the Steel Dragon?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">いや、竜はこんなことはしない。
 竜は特異な生物だ。その力を中心に運命は模様を変え、その力に魅入られた様々な存在を引き寄せる。
-この焼け焦げた死体に刻まれた印には見覚えがある…焔岩の悪魔「テフラ」、灼熱の炎を操る古の魔物だ。</t>
+この焦げた死体に残る特有の匂いには覚えがある…焔岩の悪魔「テフラ」、灼熱の炎を操る古の魔物だ。</t>
   </si>
   <si>
     <t xml:space="preserve">No, dragons don't do this.
 Dragons are singular creatures. Fate weaves around their power, attracting various beings drawn by it.
-I recognize these marks on the charred bodies... they are of Tephra, the ancient demon of molten rock, the master of scorching flames.</t>
+This scorched corpse carries a scent I recognize... they are of Tephra, the ancient demon of molten rock, the master of scorching flames.</t>
   </si>
   <si>
     <t xml:space="preserve">コルゴンの手下といったところか。よし、#pc、ここは冒険者のお前に任せる。
@@ -3671,11 +3700,11 @@
   </si>
   <si>
     <t xml:space="preserve">…あの日、ケトルがイスシズルを殺さなかったのは、憐れみからか？　それとも、彼自身の秘めた目的のためか？
-我は覚えているぞ。魔石について語るケトルの瞳にはいつも、狂熱の炎が微かに揺らめいていたことを。</t>
+我は覚えているぞ。魔石について語るケトルの声はいつも、抑えきれぬ興奮と熱に震えていたことを。</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me, was it pity that stayed Kettle’s hand that day, or was it a hidden purpose of his own?
-I remember clearly how Kettle’s eyes flickered with quiet fanaticism when speaking of the Magic Stone.</t>
+I remember it well. Whenever he spoke of the Magic Stone, his voice trembled with barely contained fervor and heat.</t>
   </si>
   <si>
     <t xml:space="preserve">あの者は、イスシズルが魔石に魅せられているといった。だが…ククク…おそらくあの者もまた、魔石に囚われた人間の一人なのだ。</t>
@@ -4203,7 +4232,7 @@
   </si>
   <si>
     <t xml:space="preserve">嗯，这样一来就可以专心开拓韦尔尼斯了。
-虽然现在只有瓦砾之山，但只要把建筑物准备好，矿工们就会云集于此。东边是王都帕罗米亚，西边是海港卡普尔，如此好的地理位置，可以说是个未来可期的地方啊。</t>
+虽然现在只有瓦砾之山，但只要把建筑物准备好，矿工们就会云集于此。东边是王都帕罗米亚，西边是港口城镇卡普尔，如此好的地理位置，可以说是个未来可期的地方啊。</t>
   </si>
   <si>
     <t xml:space="preserve">看起来进展很顺利嘛</t>
@@ -4295,12 +4324,12 @@
 唔，#pc，大家担心你，所以都追上来了。</t>
   </si>
   <si>
-    <t xml:space="preserve">到处都是凄惨的尸体啊。这都是钢铁龙干的吗？</t>
+    <t xml:space="preserve">到处都是被烧焦的尸体，真是惨不忍睹啊。这都是钢铁龙干的吗？</t>
   </si>
   <si>
     <t xml:space="preserve">不，龙不会做这种事。
 龙是奇特的生物。其力量可以改变命运的走向，引来各种被其力量迷惑住的生物。
-我认得这烧焦的尸体上的刻印…是熔岩恶魔「特菲拉」，一种操纵灼热之炎的古老魔物。</t>
+我对这些焦尸上残留的特别的味道有印象    …是熔岩恶魔「特菲拉」，一种操纵灼热之炎的古老魔物。</t>
   </si>
   <si>
     <t xml:space="preserve">看来是被歌罗贡收成手下了吧。既然这样，#pc，这件事就交给你这位冒险者了。
@@ -4925,7 +4954,7 @@
   </si>
   <si>
     <t xml:space="preserve">…那天凯特尔没有杀伊斯西泽尔是出于怜悯？还是为了他自己不可告人的目的呢？
-吾可记得。每当提起魔石，凯特尔的眼中都会有微微摇曳的狂热火焰。</t>
+吾可记得。每当提起魔石，凯特尔的声音中总会有无法抑制的兴奋与狂热。</t>
   </si>
   <si>
     <t xml:space="preserve">他说伊斯西泽尔是被魔石迷住了。但是…呵呵…我看他恐怕也是被魔石所困的人类之一吧。</t>
@@ -5137,7 +5166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -5260,6 +5289,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
   </cellXfs>
@@ -5462,10 +5495,10 @@
   </sheetPr>
   <dimension ref="A1:N709"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L702" sqref="L702"/>
-      <selection pane="bottomLeft" activeCell="J702" sqref="J702"/>
+      <selection pane="bottomLeft" activeCell="K325" sqref="K325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -8849,7 +8882,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="331" ht="13.8">
+    <row r="331" ht="23.85">
       <c r="I331" s="1">
         <v>166</v>
       </c>
@@ -8863,7 +8896,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="332" ht="85.05">
+    <row r="332" ht="79.85">
       <c r="G332" s="1" t="s">
         <v>182</v>
       </c>
@@ -13802,7 +13835,7 @@
       <c r="I686" s="1">
         <v>411</v>
       </c>
-      <c r="J686" s="7" t="s">
+      <c r="J686" s="31" t="s">
         <v>784</v>
       </c>
       <c r="K686" s="4" t="s">

--- a/Original/CN/Dialog/Drama/loytel.xlsx
+++ b/Original/CN/Dialog/Drama/loytel.xlsx
@@ -3892,7 +3892,7 @@
 使盟约之石经验值到达最大后，石头就会自动成长到下一个等级。</t>
   </si>
   <si>
-    <t xml:space="preserve">有一点需要注意的是，随着盟约之石的成长，据点中出没的敌人的强度也会上升。如果现在对袭击据点的敌人感到棘手的话，采取「抑制成长」的政策，推迟石头的成长比较好。</t>
+    <t xml:space="preserve">有一点需要注意的是，随着盟约之石的成长，据点中出没的敌人的强度也会提升。如果现在对袭击据点的敌人感到棘手的话，采取「抑制成长」的政策，推迟石头的成长比较好。</t>
   </si>
   <si>
     <t xml:space="preserve">拥有很多土地没有坏处，但即使再鲁莽地扩张土地，收入也不会倍增。
@@ -4347,7 +4347,7 @@
   <si>
     <t xml:space="preserve">吾乃钢铁龙歌罗贡
 愚蠢的人类啊
-还想活命就速速离去</t>
+若想活命就速速离去</t>
   </si>
   <si>
     <t xml:space="preserve">一说到它，它就来了。做好准备了吗，#pc？</t>
@@ -4355,14 +4355,14 @@
   <si>
     <t xml:space="preserve">吾乃钢铁龙歌罗贡…
 愚蠢的人类啊…
-还想活命就速速离去…</t>
+若想活命就速速离去…</t>
   </si>
   <si>
     <t xml:space="preserve">呜，多么可怕的声音。要来了，#pc，不要大意！</t>
   </si>
   <si>
     <t xml:space="preserve">吾乃钢铁龙歌罗贡…
-还想活命就速速离去…</t>
+若想活命就速速离去…</t>
   </si>
   <si>
     <t xml:space="preserve">吾乃钢铁龙歌罗贡…</t>
@@ -4372,9 +4372,9 @@
   </si>
   <si>
     <t xml:space="preserve">吾乃钢铁龙歌罗贡…！
-还想活命就速速离去…！
+若想活命就速速离去…！
 吾乃钢铁龙歌罗贡…！
-还想活命就速速离去…！</t>
+若想活命就速速离去…！</t>
   </si>
   <si>
     <t xml:space="preserve">唔…这家伙怎么像坏了的机器一样不停复读？越来越可疑了。</t>
@@ -4563,7 +4563,7 @@
   </si>
   <si>
     <t xml:space="preserve">…呼，这么简单就找到我了啊。
-要杀要刮随你们的便吧。但是，不管怎么骂我，钱是没有的，我也不打算付那二千万奥伦。</t>
+要杀要刮随你们的便吧。但是，不管怎么骂我，钱是没有的，我也不打算付那两千万奥伦。</t>
   </si>
   <si>
     <t xml:space="preserve">何等敷衍了事的态度…米西利亚引以为豪的开拓监察官怎么会这样…</t>
@@ -4579,7 +4579,7 @@
 但如果是罗伊特尔大人的话…</t>
   </si>
   <si>
-    <t xml:space="preserve">不，没办法的，法莉斯小姐。现在韦尔尼斯的黄金梦都变成一场空了，二千万奥伦啊，你要我怎么还…我…我已经不行了。</t>
+    <t xml:space="preserve">不，没办法的，法莉斯小姐。现在韦尔尼斯的黄金梦都变成一场空了，两千万奥伦啊，你要我怎么还…我…我已经不行了。</t>
   </si>
   <si>
     <t xml:space="preserve">已经完蛋了…</t>
@@ -4609,7 +4609,7 @@
   </si>
   <si>
     <t xml:space="preserve">传说中的钢铁龙和宿命的少女，知晓风之名的炼金术师，还有隐藏着无限可能性的冒险者…
-如果米西利亚真的那么穷困，那给它二千万奥伦也无妨不是吗？和这些伙伴今后能编织出的命运和传说相比，那只是微不足道的代价。
+如果米西利亚真的那么穷困，那给它两千万奥伦也无妨不是吗？和这些伙伴今后能编织出的命运和传说相比，那只是微不足道的代价。
 后世的人们回顾这个时代，一定会把它叫做「梦幻天蓝郁金香时代」…</t>
   </si>
   <si>
@@ -4802,7 +4802,7 @@
     <t xml:space="preserve">卡多恩大人！</t>
   </si>
   <si>
-    <t xml:space="preserve">…抱，抱歉。怪老夫不好。
+    <t xml:space="preserve">…抱、抱歉。怪老夫不好。
 这当然一点也不可笑。都怪这花，让米西利亚失去了一位你这样的希世之才啊。</t>
   </si>
   <si>
@@ -4832,7 +4832,7 @@
   <si>
     <t xml:space="preserve">慢…慢着慢着。虽说这场会谈莫名其妙，但我也不至于光顾着沉迷奥尔维纳的美酒。趁着卡多恩阁下醉倒之际，我总算争取到了援助的承诺。
 他答应从米西里亚军械库暗中调拨些对我们有用的装备。
-虽然说不准会送来什么货色，但我都会陈列在罗伊特尔・商场里。有时间不妨来看看。</t>
+虽然说不准会送来什么货色，但我都会陈列在罗伊特尔·商场里。有时间不妨来看看。</t>
   </si>
   <si>
     <t xml:space="preserve">怎么总觉得背后发凉…</t>
@@ -4892,7 +4892,7 @@
     <t xml:space="preserve">这下头疼了。我也去问过库罗茨亚，但不知道为什么刚提起凯特尔的名字她就一脸的不高兴。</t>
   </si>
   <si>
-    <t xml:space="preserve">那孩子毕竟还处于烦恼很多的年纪呢。对了，我们去问问迪米塔斯老师有没有见到凯特尔吧。</t>
+    <t xml:space="preserve">那孩子毕竟还处于烦恼很多的年纪呢。对了，我们去问问迪米塔斯老师有没有见到凯特尔先生吧。</t>
   </si>
   <si>
     <t xml:space="preserve">迪米塔斯老师…？你管那幽灵叫做老师？</t>
@@ -4985,7 +4985,7 @@
     <t xml:space="preserve">米西利亚东边山脉的山脚下，阴暗的古老森林中，有吾等「流放者」生活的村落。它被结界守护，但是有了这手环汝等就不会再被阻挡在外。</t>
   </si>
   <si>
-    <t xml:space="preserve">流放者的长老比切林是个很难打交道的老东西，但他拥有已经失传的珍贵学识。倘若要与伊斯西兹尔，甚至凯特尔为敌，那老头的力量还是有用的。</t>
+    <t xml:space="preserve">流放者的长老比切林是个很难打交道的老东西，但他拥有已经失传的珍贵学识。倘若要与伊斯西泽尔，甚至凯特尔为敌，那老头的力量还是有用的。</t>
   </si>
   <si>
     <t xml:space="preserve">流放者之村…光是听到这个名字，就让人很激动呢。</t>
@@ -4994,7 +4994,7 @@
     <t xml:space="preserve">唔，确实让人感兴趣…但你为什么要帮助我们呢？</t>
   </si>
   <si>
-    <t xml:space="preserve">呵呵呵..…只是消磨时间罢了。而且以现在的情况，对汝等岂不是不公平？
+    <t xml:space="preserve">呵呵呵…只是消磨时间罢了。而且以现在的情况，对汝等岂不是不公平？
 毕竟汝等要面对的对手，可是这世界上最接近「神」的存在啊。</t>
   </si>
 </sst>

--- a/Original/CN/Dialog/Drama/loytel.xlsx
+++ b/Original/CN/Dialog/Drama/loytel.xlsx
@@ -3892,7 +3892,7 @@
 使盟约之石经验值到达最大后，石头就会自动成长到下一个等级。</t>
   </si>
   <si>
-    <t xml:space="preserve">有一点需要注意的是，随着盟约之石的成长，据点中出没的敌人的强度也会提升。如果现在对袭击据点的敌人感到棘手的话，采取「抑制成长」的政策，推迟石头的成长比较好。</t>
+    <t xml:space="preserve">有一点需要注意的是，随着盟约之石的成长，据点中出没的敌人的强度也会上升。如果现在对袭击据点的敌人感到棘手的话，采取「抑制成长」的政策，推迟石头的成长比较好。</t>
   </si>
   <si>
     <t xml:space="preserve">拥有很多土地没有坏处，但即使再鲁莽地扩张土地，收入也不会倍增。
@@ -4347,7 +4347,7 @@
   <si>
     <t xml:space="preserve">吾乃钢铁龙歌罗贡
 愚蠢的人类啊
-若想活命就速速离去</t>
+还想活命就速速离去</t>
   </si>
   <si>
     <t xml:space="preserve">一说到它，它就来了。做好准备了吗，#pc？</t>
@@ -4355,14 +4355,14 @@
   <si>
     <t xml:space="preserve">吾乃钢铁龙歌罗贡…
 愚蠢的人类啊…
-若想活命就速速离去…</t>
+还想活命就速速离去…</t>
   </si>
   <si>
     <t xml:space="preserve">呜，多么可怕的声音。要来了，#pc，不要大意！</t>
   </si>
   <si>
     <t xml:space="preserve">吾乃钢铁龙歌罗贡…
-若想活命就速速离去…</t>
+还想活命就速速离去…</t>
   </si>
   <si>
     <t xml:space="preserve">吾乃钢铁龙歌罗贡…</t>
@@ -4372,9 +4372,9 @@
   </si>
   <si>
     <t xml:space="preserve">吾乃钢铁龙歌罗贡…！
-若想活命就速速离去…！
+还想活命就速速离去…！
 吾乃钢铁龙歌罗贡…！
-若想活命就速速离去…！</t>
+还想活命就速速离去…！</t>
   </si>
   <si>
     <t xml:space="preserve">唔…这家伙怎么像坏了的机器一样不停复读？越来越可疑了。</t>
@@ -4563,7 +4563,7 @@
   </si>
   <si>
     <t xml:space="preserve">…呼，这么简单就找到我了啊。
-要杀要刮随你们的便吧。但是，不管怎么骂我，钱是没有的，我也不打算付那两千万奥伦。</t>
+要杀要刮随你们的便吧。但是，不管怎么骂我，钱是没有的，我也不打算付那二千万奥伦。</t>
   </si>
   <si>
     <t xml:space="preserve">何等敷衍了事的态度…米西利亚引以为豪的开拓监察官怎么会这样…</t>
@@ -4579,7 +4579,7 @@
 但如果是罗伊特尔大人的话…</t>
   </si>
   <si>
-    <t xml:space="preserve">不，没办法的，法莉斯小姐。现在韦尔尼斯的黄金梦都变成一场空了，两千万奥伦啊，你要我怎么还…我…我已经不行了。</t>
+    <t xml:space="preserve">不，没办法的，法莉斯小姐。现在韦尔尼斯的黄金梦都变成一场空了，二千万奥伦啊，你要我怎么还…我…我已经不行了。</t>
   </si>
   <si>
     <t xml:space="preserve">已经完蛋了…</t>
@@ -4609,7 +4609,7 @@
   </si>
   <si>
     <t xml:space="preserve">传说中的钢铁龙和宿命的少女，知晓风之名的炼金术师，还有隐藏着无限可能性的冒险者…
-如果米西利亚真的那么穷困，那给它两千万奥伦也无妨不是吗？和这些伙伴今后能编织出的命运和传说相比，那只是微不足道的代价。
+如果米西利亚真的那么穷困，那给它二千万奥伦也无妨不是吗？和这些伙伴今后能编织出的命运和传说相比，那只是微不足道的代价。
 后世的人们回顾这个时代，一定会把它叫做「梦幻天蓝郁金香时代」…</t>
   </si>
   <si>
@@ -4802,7 +4802,7 @@
     <t xml:space="preserve">卡多恩大人！</t>
   </si>
   <si>
-    <t xml:space="preserve">…抱、抱歉。怪老夫不好。
+    <t xml:space="preserve">…抱，抱歉。怪老夫不好。
 这当然一点也不可笑。都怪这花，让米西利亚失去了一位你这样的希世之才啊。</t>
   </si>
   <si>
@@ -4832,7 +4832,7 @@
   <si>
     <t xml:space="preserve">慢…慢着慢着。虽说这场会谈莫名其妙，但我也不至于光顾着沉迷奥尔维纳的美酒。趁着卡多恩阁下醉倒之际，我总算争取到了援助的承诺。
 他答应从米西里亚军械库暗中调拨些对我们有用的装备。
-虽然说不准会送来什么货色，但我都会陈列在罗伊特尔·商场里。有时间不妨来看看。</t>
+虽然说不准会送来什么货色，但我都会陈列在罗伊特尔・商场里。有时间不妨来看看。</t>
   </si>
   <si>
     <t xml:space="preserve">怎么总觉得背后发凉…</t>
@@ -4892,7 +4892,7 @@
     <t xml:space="preserve">这下头疼了。我也去问过库罗茨亚，但不知道为什么刚提起凯特尔的名字她就一脸的不高兴。</t>
   </si>
   <si>
-    <t xml:space="preserve">那孩子毕竟还处于烦恼很多的年纪呢。对了，我们去问问迪米塔斯老师有没有见到凯特尔先生吧。</t>
+    <t xml:space="preserve">那孩子毕竟还处于烦恼很多的年纪呢。对了，我们去问问迪米塔斯老师有没有见到凯特尔吧。</t>
   </si>
   <si>
     <t xml:space="preserve">迪米塔斯老师…？你管那幽灵叫做老师？</t>
@@ -4985,7 +4985,7 @@
     <t xml:space="preserve">米西利亚东边山脉的山脚下，阴暗的古老森林中，有吾等「流放者」生活的村落。它被结界守护，但是有了这手环汝等就不会再被阻挡在外。</t>
   </si>
   <si>
-    <t xml:space="preserve">流放者的长老比切林是个很难打交道的老东西，但他拥有已经失传的珍贵学识。倘若要与伊斯西泽尔，甚至凯特尔为敌，那老头的力量还是有用的。</t>
+    <t xml:space="preserve">流放者的长老比切林是个很难打交道的老东西，但他拥有已经失传的珍贵学识。倘若要与伊斯西兹尔，甚至凯特尔为敌，那老头的力量还是有用的。</t>
   </si>
   <si>
     <t xml:space="preserve">流放者之村…光是听到这个名字，就让人很激动呢。</t>
@@ -4994,7 +4994,7 @@
     <t xml:space="preserve">唔，确实让人感兴趣…但你为什么要帮助我们呢？</t>
   </si>
   <si>
-    <t xml:space="preserve">呵呵呵…只是消磨时间罢了。而且以现在的情况，对汝等岂不是不公平？
+    <t xml:space="preserve">呵呵呵..…只是消磨时间罢了。而且以现在的情况，对汝等岂不是不公平？
 毕竟汝等要面对的对手，可是这世界上最接近「神」的存在啊。</t>
   </si>
 </sst>
